--- a/테이블/테이블 원본/Table_v_1.2.3.xlsx
+++ b/테이블/테이블 원본/Table_v_1.2.3.xlsx
@@ -8,22 +8,25 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\hosung\게임기획\진심모드\테이블\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC8B7A4A-375B-4CCB-BF66-F25654B3122A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{294CC2D6-99E7-4298-92B9-7940CF14700B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ITEM" sheetId="2" r:id="rId1"/>
     <sheet name="char" sheetId="8" r:id="rId2"/>
     <sheet name="char information" sheetId="14" r:id="rId3"/>
-    <sheet name="Likability" sheetId="13" r:id="rId4"/>
-    <sheet name="skill" sheetId="9" r:id="rId5"/>
+    <sheet name="char expression" sheetId="16" r:id="rId4"/>
+    <sheet name="Likability" sheetId="13" r:id="rId5"/>
     <sheet name="포션" sheetId="12" r:id="rId6"/>
-    <sheet name="Map" sheetId="10" r:id="rId7"/>
-    <sheet name="대화" sheetId="15" r:id="rId8"/>
-    <sheet name="ID" sheetId="11" r:id="rId9"/>
-    <sheet name="설명" sheetId="4" r:id="rId10"/>
-    <sheet name="버전" sheetId="5" r:id="rId11"/>
+    <sheet name="skill" sheetId="9" r:id="rId7"/>
+    <sheet name="Map" sheetId="10" r:id="rId8"/>
+    <sheet name="Story" sheetId="15" r:id="rId9"/>
+    <sheet name="SubStoryTable" sheetId="18" r:id="rId10"/>
+    <sheet name="StoryDate" sheetId="17" r:id="rId11"/>
+    <sheet name="ID" sheetId="11" r:id="rId12"/>
+    <sheet name="설명" sheetId="4" r:id="rId13"/>
+    <sheet name="버전" sheetId="5" r:id="rId14"/>
   </sheets>
   <definedNames>
     <definedName name="ITEM">ITEM!$B$2:$AC$70</definedName>
@@ -48,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="363">
   <si>
     <t>index</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -634,9 +637,6 @@
   <si>
     <t>INDEX</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Category</t>
   </si>
   <si>
     <t>조심스러움</t>
@@ -1061,18 +1061,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Sound</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Type</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>D.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>u_story_01</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1085,19 +1077,352 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>달도 구름에 가려진 하늘은 한없이 새까맣다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그걸 보고 있는 건, 눈을 감은 것과 뭐가 다를까.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>States</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>기본</t>
+  </si>
+  <si>
+    <t>웃음</t>
+  </si>
+  <si>
+    <t xml:space="preserve">빛나는 것만 빼면 평범한 단검. 찌르고 베는데는 문제가 없다. </t>
+  </si>
+  <si>
+    <t>깜빡거리며 반짝이는 날카로운 단검. 스치는 것만으로도 깊게 상처가 날 것 같다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">음울한 회색의 단검. 밤 안개 속에 있는 것처럼 흐린 빛을 내고 있다. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">더 이상 빛나지 않는 단검. 그 대신 칼날만큼은 더욱 흉흉하게 변했다.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">새까맣게 물든 검은 단검. 찔린다면 다신 회복할 수 없는 상처가 남을 것이다. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">귀여운 캐릭터가 그려진 과일맛 껌. 안에는 스티커도 들어있는 듯 하다. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">하트모양 큐빅으로 엮은 팔찌. 아이들 장난감으로도 인기가 많다.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">가로로 쓰는 커다란 머리띠. 귀여운 리본 하나가 중앙에 달려있다. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">조그맣고 귀여운 아기 인형. 나도 모르게 껴안고 싶어진다. </t>
+  </si>
+  <si>
+    <t>보석을 작은 알갱이가 될 때까지 갈아내어 만든 것. 어째서 이런 짓을...?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">윤기가 흐르는 검은 비단. 몸에만 둘러도 아름다운 원피스가 될 것 같다. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">마시면 활력이 돋는 수상한 물약. 에너지 드링크하고 비슷한 맛이 난다. </t>
+  </si>
+  <si>
+    <t>먹구름에서 뜯어낸 것 같은 새까만 솜덩이. 아주 부드럽지만 만지면 손이 까매진다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">별처럼 빛나는 정체 모를 가루. 아주 작은데도 내뿜는 빛은 꽤 강하다. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">달이 떴을 때 맺힌 물방울. 씁쓸하고 아린 맛이 난다. </t>
+  </si>
+  <si>
+    <t>홀로 떨어져있는 조그마한 눈송이. 시간이 지나면 자연스레 사라져 버린다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">주먹 크기의 단단한 광석. 강도가 높아서 여러 용도로 쓸 수 있어 보인다. </t>
+  </si>
+  <si>
+    <t>겨울의 추위에도 아직 따듯함이 남아있는 씨앗. 봄이 온다면 다시 깨어날지도 모른다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">누군가가 버린 작은 인형. 바닥을 굴러다녔는지 먼지로 뒤덮여있어 더럽다. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">꽁꽁 얼어버린 나뭇잎. 약간만 힘을 줘도 바스라지니 주의해서 다뤄야한다. </t>
+  </si>
+  <si>
+    <t>마음을 전하기 위해 적은 누군가의 편지. 전하려던 건 어떤 마음이었을까.</t>
+  </si>
+  <si>
+    <t>나</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>놀람</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>진지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dialogue1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>text</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SFX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Date ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unique ID</t>
+  </si>
+  <si>
+    <t>UseItem ID 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UseItem ID 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UseItem ID 3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>u_story_05</t>
+  </si>
+  <si>
+    <t>u_story_05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>월요일 오전</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StoryDate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Info</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스토리 시간 개념 ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>월요일 오후</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>월요일 방과후</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>월요일 밤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>화요일 오전</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>화요일 오후</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>화요일 방과후</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>화요일 밤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수요일 오전</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수요일 오후</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수요일 방과후</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수요일 밤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>목요일 오전</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>목요일 오후</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>목요일 방과후</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>목요일 밤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>금요일 오전</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>금요일 오후</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>금요일 방과후</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>금요일 밤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>토요일 오전</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>토요일 오후</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>토요일 방과후</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>토요일 밤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일요일 오전</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일요일 오후</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일요일 방과후</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일요일 밤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>u_story_02</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>달도 구름에 가려진 하늘은 한없이 새까맣다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>u_story_03</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>그걸 보고 있는 건, 눈을 감은 것과 뭐가 다를까.</t>
+  </si>
+  <si>
+    <t>u_story_04</t>
+  </si>
+  <si>
+    <t>u_story_06</t>
+  </si>
+  <si>
+    <t>u_story_07</t>
+  </si>
+  <si>
+    <t>u_story_08</t>
+  </si>
+  <si>
+    <t>u_story_09</t>
+  </si>
+  <si>
+    <t>u_story_10</t>
+  </si>
+  <si>
+    <t>u_story_11</t>
+  </si>
+  <si>
+    <t>u_story_12</t>
+  </si>
+  <si>
+    <t>u_story_13</t>
+  </si>
+  <si>
+    <t>u_story_14</t>
+  </si>
+  <si>
+    <t>u_story_15</t>
+  </si>
+  <si>
+    <t>u_story_16</t>
+  </si>
+  <si>
+    <t>u_story_17</t>
+  </si>
+  <si>
+    <t>u_story_18</t>
+  </si>
+  <si>
+    <t>u_story_19</t>
+  </si>
+  <si>
+    <t>u_story_20</t>
+  </si>
+  <si>
+    <t>u_story_21</t>
+  </si>
+  <si>
+    <t>u_story_22</t>
+  </si>
+  <si>
+    <t>u_story_23</t>
+  </si>
+  <si>
+    <t>u_story_24</t>
+  </si>
+  <si>
+    <t>u_story_25</t>
+  </si>
+  <si>
+    <t>u_story_26</t>
+  </si>
+  <si>
+    <t>Next Unique ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1주차 월요일 오전</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Limit ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1105,7 +1430,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1136,6 +1461,13 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="major"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -1157,7 +1489,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -1219,6 +1551,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1228,7 +1571,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1286,14 +1629,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1301,10 +1648,12 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -1321,102 +1670,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>885825</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="TextBox 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{903249B2-ACD5-A108-C7B8-E1D0313914C0}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7686675" y="304800"/>
-          <a:ext cx="1562100" cy="1495425"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
-            <a:t>여기에 캐릭터 </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
-            <a:t>ID</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
-            <a:t>가 들어가면 좋겠는데 같은 캐릭터라도 표정이 다르면 어케 해야함</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
-            <a:t>?</a:t>
-          </a:r>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1720,10 +1973,10 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A29" sqref="A29"/>
+      <selection pane="bottomLeft" activeCell="B17" sqref="B17:C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="9" style="4"/>
     <col min="2" max="2" width="21.375" bestFit="1" customWidth="1"/>
@@ -1753,7 +2006,7 @@
     <col min="29" max="29" width="70" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:29" s="4" customFormat="1">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -1842,12 +2095,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:29">
       <c r="A2" s="8">
         <v>0</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C2" s="5">
         <v>1001</v>
@@ -1880,20 +2133,20 @@
         <v>2</v>
       </c>
       <c r="M2" s="10" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="N2" s="5">
-        <f>VLOOKUP(M2,ITEM,2,FALSE)</f>
+        <f t="shared" ref="N2:N16" si="0">VLOOKUP(M2,ITEM,2,FALSE)</f>
         <v>4001</v>
       </c>
       <c r="O2" s="10">
         <v>5</v>
       </c>
       <c r="P2" s="10" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="Q2" s="5">
-        <f>VLOOKUP(P2,ITEM,2,FALSE)</f>
+        <f t="shared" ref="Q2:Q16" si="1">VLOOKUP(P2,ITEM,2,FALSE)</f>
         <v>4002</v>
       </c>
       <c r="R2" s="10">
@@ -1911,14 +2164,16 @@
       <c r="AB2" s="10">
         <v>1</v>
       </c>
-      <c r="AC2" s="5"/>
-    </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AC2" s="5" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29">
       <c r="A3" s="8">
         <v>1</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C3" s="5">
         <v>1002</v>
@@ -1952,13 +2207,13 @@
       </c>
       <c r="M3" s="10"/>
       <c r="N3" s="5" t="e">
-        <f>VLOOKUP(M3,ITEM,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="O3" s="10"/>
       <c r="P3" s="10"/>
       <c r="Q3" s="5" t="e">
-        <f>VLOOKUP(P3,ITEM,2,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="R3" s="10"/>
@@ -1972,14 +2227,16 @@
       <c r="Z3" s="5"/>
       <c r="AA3" s="5"/>
       <c r="AB3" s="10"/>
-      <c r="AC3" s="5"/>
-    </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AC3" s="5" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29">
       <c r="A4" s="8">
         <v>2</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C4" s="5">
         <v>1003</v>
@@ -2013,13 +2270,13 @@
       </c>
       <c r="M4" s="10"/>
       <c r="N4" s="5" t="e">
-        <f>VLOOKUP(M4,ITEM,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="O4" s="10"/>
       <c r="P4" s="10"/>
       <c r="Q4" s="5" t="e">
-        <f>VLOOKUP(P4,ITEM,2,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="R4" s="10"/>
@@ -2033,14 +2290,16 @@
       <c r="Z4" s="5"/>
       <c r="AA4" s="5"/>
       <c r="AB4" s="10"/>
-      <c r="AC4" s="5"/>
-    </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AC4" s="5" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29">
       <c r="A5" s="8">
         <v>3</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C5" s="5">
         <v>1004</v>
@@ -2074,13 +2333,13 @@
       </c>
       <c r="M5" s="10"/>
       <c r="N5" s="5" t="e">
-        <f>VLOOKUP(M5,ITEM,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="O5" s="10"/>
       <c r="P5" s="10"/>
       <c r="Q5" s="5" t="e">
-        <f>VLOOKUP(P5,ITEM,2,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="R5" s="10"/>
@@ -2094,14 +2353,16 @@
       <c r="Z5" s="5"/>
       <c r="AA5" s="5"/>
       <c r="AB5" s="10"/>
-      <c r="AC5" s="5"/>
-    </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AC5" s="5" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29">
       <c r="A6" s="8">
         <v>4</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C6" s="5">
         <v>1005</v>
@@ -2135,13 +2396,13 @@
       </c>
       <c r="M6" s="10"/>
       <c r="N6" s="5" t="e">
-        <f>VLOOKUP(M6,ITEM,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="O6" s="10"/>
       <c r="P6" s="10"/>
       <c r="Q6" s="5" t="e">
-        <f>VLOOKUP(P6,ITEM,2,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="R6" s="10"/>
@@ -2155,9 +2416,11 @@
       <c r="Z6" s="5"/>
       <c r="AA6" s="5"/>
       <c r="AB6" s="10"/>
-      <c r="AC6" s="5"/>
-    </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AC6" s="5" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29">
       <c r="A7" s="8">
         <v>5</v>
       </c>
@@ -2198,7 +2461,7 @@
         <v>35</v>
       </c>
       <c r="N7" s="5" t="e">
-        <f>VLOOKUP(M7,ITEM,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="O7" s="10">
@@ -2208,7 +2471,7 @@
         <v>58</v>
       </c>
       <c r="Q7" s="5" t="e">
-        <f>VLOOKUP(P7,ITEM,2,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="R7" s="10">
@@ -2228,7 +2491,7 @@
       </c>
       <c r="AC7" s="5"/>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:29">
       <c r="A8" s="8">
         <v>6</v>
       </c>
@@ -2267,13 +2530,13 @@
       </c>
       <c r="M8" s="10"/>
       <c r="N8" s="5" t="e">
-        <f>VLOOKUP(M8,ITEM,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="O8" s="10"/>
       <c r="P8" s="10"/>
       <c r="Q8" s="5" t="e">
-        <f>VLOOKUP(P8,ITEM,2,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="R8" s="10"/>
@@ -2289,7 +2552,7 @@
       <c r="AB8" s="10"/>
       <c r="AC8" s="5"/>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:29">
       <c r="A9" s="8">
         <v>7</v>
       </c>
@@ -2328,13 +2591,13 @@
       </c>
       <c r="M9" s="10"/>
       <c r="N9" s="5" t="e">
-        <f>VLOOKUP(M9,ITEM,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="O9" s="10"/>
       <c r="P9" s="10"/>
       <c r="Q9" s="5" t="e">
-        <f>VLOOKUP(P9,ITEM,2,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="R9" s="10"/>
@@ -2350,7 +2613,7 @@
       <c r="AB9" s="10"/>
       <c r="AC9" s="5"/>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:29">
       <c r="A10" s="8">
         <v>8</v>
       </c>
@@ -2389,13 +2652,13 @@
       </c>
       <c r="M10" s="10"/>
       <c r="N10" s="5" t="e">
-        <f>VLOOKUP(M10,ITEM,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="O10" s="10"/>
       <c r="P10" s="10"/>
       <c r="Q10" s="5" t="e">
-        <f>VLOOKUP(P10,ITEM,2,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="R10" s="10"/>
@@ -2411,7 +2674,7 @@
       <c r="AB10" s="10"/>
       <c r="AC10" s="5"/>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:29">
       <c r="A11" s="8">
         <v>9</v>
       </c>
@@ -2450,13 +2713,13 @@
       </c>
       <c r="M11" s="10"/>
       <c r="N11" s="5" t="e">
-        <f>VLOOKUP(M11,ITEM,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="O11" s="10"/>
       <c r="P11" s="10"/>
       <c r="Q11" s="5" t="e">
-        <f>VLOOKUP(P11,ITEM,2,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="R11" s="10"/>
@@ -2472,7 +2735,7 @@
       <c r="AB11" s="10"/>
       <c r="AC11" s="5"/>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:29">
       <c r="A12" s="8">
         <v>10</v>
       </c>
@@ -2513,7 +2776,7 @@
         <v>57</v>
       </c>
       <c r="N12" s="5" t="e">
-        <f>VLOOKUP(M12,ITEM,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="O12" s="10">
@@ -2523,7 +2786,7 @@
         <v>58</v>
       </c>
       <c r="Q12" s="5" t="e">
-        <f>VLOOKUP(P12,ITEM,2,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="R12" s="10">
@@ -2543,7 +2806,7 @@
       </c>
       <c r="AC12" s="5"/>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:29">
       <c r="A13" s="8">
         <v>11</v>
       </c>
@@ -2582,13 +2845,13 @@
       </c>
       <c r="M13" s="10"/>
       <c r="N13" s="5" t="e">
-        <f>VLOOKUP(M13,ITEM,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="O13" s="10"/>
       <c r="P13" s="10"/>
       <c r="Q13" s="5" t="e">
-        <f>VLOOKUP(P13,ITEM,2,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="R13" s="10"/>
@@ -2604,7 +2867,7 @@
       <c r="AB13" s="10"/>
       <c r="AC13" s="5"/>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:29">
       <c r="A14" s="8">
         <v>12</v>
       </c>
@@ -2643,13 +2906,13 @@
       </c>
       <c r="M14" s="10"/>
       <c r="N14" s="5" t="e">
-        <f>VLOOKUP(M14,ITEM,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="O14" s="10"/>
       <c r="P14" s="10"/>
       <c r="Q14" s="5" t="e">
-        <f>VLOOKUP(P14,ITEM,2,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="R14" s="10"/>
@@ -2665,7 +2928,7 @@
       <c r="AB14" s="10"/>
       <c r="AC14" s="5"/>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:29">
       <c r="A15" s="8">
         <v>13</v>
       </c>
@@ -2704,13 +2967,13 @@
       </c>
       <c r="M15" s="10"/>
       <c r="N15" s="5" t="e">
-        <f>VLOOKUP(M15,ITEM,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="O15" s="10"/>
       <c r="P15" s="10"/>
       <c r="Q15" s="5" t="e">
-        <f>VLOOKUP(P15,ITEM,2,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="R15" s="10"/>
@@ -2726,7 +2989,7 @@
       <c r="AB15" s="10"/>
       <c r="AC15" s="5"/>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:29">
       <c r="A16" s="8">
         <v>14</v>
       </c>
@@ -2765,13 +3028,13 @@
       </c>
       <c r="M16" s="10"/>
       <c r="N16" s="5" t="e">
-        <f>VLOOKUP(M16,ITEM,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="O16" s="10"/>
       <c r="P16" s="10"/>
       <c r="Q16" s="5" t="e">
-        <f>VLOOKUP(P16,ITEM,2,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="R16" s="10"/>
@@ -2787,12 +3050,12 @@
       <c r="AB16" s="10"/>
       <c r="AC16" s="5"/>
     </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:29">
       <c r="A17" s="8">
         <v>15</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C17" s="5">
         <v>2001</v>
@@ -2838,14 +3101,16 @@
       <c r="Z17" s="5"/>
       <c r="AA17" s="5"/>
       <c r="AB17" s="10"/>
-      <c r="AC17" s="5"/>
-    </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AC17" s="5" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="18" spans="1:29">
       <c r="A18" s="8">
         <v>16</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C18" s="5">
         <v>2002</v>
@@ -2891,14 +3156,16 @@
       <c r="Z18" s="5"/>
       <c r="AA18" s="5"/>
       <c r="AB18" s="5"/>
-      <c r="AC18" s="5"/>
-    </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AC18" s="5" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="19" spans="1:29">
       <c r="A19" s="8">
         <v>17</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C19" s="5">
         <v>2003</v>
@@ -2944,14 +3211,16 @@
       <c r="Z19" s="5"/>
       <c r="AA19" s="5"/>
       <c r="AB19" s="5"/>
-      <c r="AC19" s="5"/>
-    </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AC19" s="5" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="20" spans="1:29">
       <c r="A20" s="8">
         <v>18</v>
       </c>
       <c r="B20" s="18" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C20" s="5">
         <v>2004</v>
@@ -2997,14 +3266,16 @@
       <c r="Z20" s="5"/>
       <c r="AA20" s="5"/>
       <c r="AB20" s="5"/>
-      <c r="AC20" s="5"/>
-    </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AC20" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="21" spans="1:29">
       <c r="A21" s="8">
         <v>19</v>
       </c>
       <c r="B21" s="18" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C21" s="5">
         <v>2005</v>
@@ -3050,14 +3321,16 @@
       <c r="Z21" s="5"/>
       <c r="AA21" s="5"/>
       <c r="AB21" s="5"/>
-      <c r="AC21" s="5"/>
-    </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AC21" s="5" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="22" spans="1:29">
       <c r="A22" s="8">
         <v>20</v>
       </c>
       <c r="B22" s="18" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C22" s="5">
         <v>2006</v>
@@ -3103,14 +3376,16 @@
       <c r="Z22" s="5"/>
       <c r="AA22" s="5"/>
       <c r="AB22" s="5"/>
-      <c r="AC22" s="5"/>
-    </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AC22" s="5" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="23" spans="1:29">
       <c r="A23" s="8">
         <v>21</v>
       </c>
       <c r="B23" s="18" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C23" s="5">
         <v>2007</v>
@@ -3158,12 +3433,12 @@
       <c r="AB23" s="5"/>
       <c r="AC23" s="5"/>
     </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:29">
       <c r="A24" s="8">
         <v>22</v>
       </c>
       <c r="B24" s="18" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C24" s="5">
         <v>2008</v>
@@ -3211,12 +3486,12 @@
       <c r="AB24" s="5"/>
       <c r="AC24" s="5"/>
     </row>
-    <row r="25" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:29">
       <c r="A25" s="8">
         <v>23</v>
       </c>
       <c r="B25" s="18" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C25" s="5">
         <v>2009</v>
@@ -3264,12 +3539,12 @@
       <c r="AB25" s="5"/>
       <c r="AC25" s="5"/>
     </row>
-    <row r="26" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:29">
       <c r="A26" s="8">
         <v>24</v>
       </c>
       <c r="B26" s="18" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C26" s="5">
         <v>2010</v>
@@ -3317,12 +3592,12 @@
       <c r="AB26" s="5"/>
       <c r="AC26" s="5"/>
     </row>
-    <row r="27" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:29">
       <c r="A27" s="8">
         <v>25</v>
       </c>
       <c r="B27" s="18" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C27" s="5">
         <v>2011</v>
@@ -3370,12 +3645,12 @@
       <c r="AB27" s="5"/>
       <c r="AC27" s="5"/>
     </row>
-    <row r="28" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:29">
       <c r="A28" s="8">
         <v>26</v>
       </c>
       <c r="B28" s="18" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C28" s="5">
         <v>2012</v>
@@ -3423,12 +3698,12 @@
       <c r="AB28" s="5"/>
       <c r="AC28" s="5"/>
     </row>
-    <row r="29" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:29">
       <c r="A29" s="8">
         <v>27</v>
       </c>
       <c r="B29" s="18" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C29" s="5">
         <v>2013</v>
@@ -3476,12 +3751,12 @@
       <c r="AB29" s="5"/>
       <c r="AC29" s="5"/>
     </row>
-    <row r="30" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:29">
       <c r="A30" s="8">
         <v>28</v>
       </c>
       <c r="B30" s="18" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C30" s="5">
         <v>2014</v>
@@ -3529,12 +3804,12 @@
       <c r="AB30" s="5"/>
       <c r="AC30" s="5"/>
     </row>
-    <row r="31" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:29">
       <c r="A31" s="8">
         <v>29</v>
       </c>
       <c r="B31" s="18" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C31" s="5">
         <v>2015</v>
@@ -3582,12 +3857,12 @@
       <c r="AB31" s="5"/>
       <c r="AC31" s="5"/>
     </row>
-    <row r="32" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:29">
       <c r="A32" s="8">
         <v>30</v>
       </c>
       <c r="B32" s="18" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C32" s="5">
         <v>3001</v>
@@ -3633,9 +3908,11 @@
       <c r="Z32" s="5"/>
       <c r="AA32" s="5"/>
       <c r="AB32" s="5"/>
-      <c r="AC32" s="5"/>
-    </row>
-    <row r="33" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AC32" s="5" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="33" spans="1:29">
       <c r="A33" s="8">
         <v>31</v>
       </c>
@@ -3688,7 +3965,7 @@
       <c r="AB33" s="5"/>
       <c r="AC33" s="5"/>
     </row>
-    <row r="34" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:29">
       <c r="A34" s="8">
         <v>32</v>
       </c>
@@ -3741,7 +4018,7 @@
       <c r="AB34" s="5"/>
       <c r="AC34" s="5"/>
     </row>
-    <row r="35" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:29">
       <c r="A35" s="8">
         <v>33</v>
       </c>
@@ -3794,12 +4071,12 @@
       <c r="AB35" s="5"/>
       <c r="AC35" s="5"/>
     </row>
-    <row r="36" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:29">
       <c r="A36" s="8">
         <v>34</v>
       </c>
       <c r="B36" s="18" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C36" s="5">
         <v>4001</v>
@@ -3846,15 +4123,15 @@
       <c r="AA36" s="5"/>
       <c r="AB36" s="5"/>
       <c r="AC36" s="5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="37" spans="1:29" x14ac:dyDescent="0.3">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="37" spans="1:29">
       <c r="A37" s="8">
         <v>35</v>
       </c>
       <c r="B37" s="18" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C37" s="5">
         <v>4002</v>
@@ -3901,15 +4178,15 @@
       <c r="AA37" s="5"/>
       <c r="AB37" s="5"/>
       <c r="AC37" s="5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="38" spans="1:29" x14ac:dyDescent="0.3">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="38" spans="1:29">
       <c r="A38" s="8">
         <v>36</v>
       </c>
       <c r="B38" s="18" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C38" s="5">
         <v>4003</v>
@@ -3956,15 +4233,15 @@
       <c r="AA38" s="5"/>
       <c r="AB38" s="5"/>
       <c r="AC38" s="5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="39" spans="1:29" x14ac:dyDescent="0.3">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="39" spans="1:29">
       <c r="A39" s="8">
         <v>37</v>
       </c>
       <c r="B39" s="18" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C39" s="5">
         <v>4004</v>
@@ -4010,14 +4287,16 @@
       <c r="Z39" s="5"/>
       <c r="AA39" s="5"/>
       <c r="AB39" s="5"/>
-      <c r="AC39" s="5"/>
-    </row>
-    <row r="40" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AC39" s="5" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="40" spans="1:29">
       <c r="A40" s="8">
         <v>38</v>
       </c>
       <c r="B40" s="18" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C40" s="5">
         <v>4005</v>
@@ -4063,14 +4342,16 @@
       <c r="Z40" s="5"/>
       <c r="AA40" s="5"/>
       <c r="AB40" s="5"/>
-      <c r="AC40" s="5"/>
-    </row>
-    <row r="41" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AC40" s="5" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="41" spans="1:29">
       <c r="A41" s="8">
         <v>39</v>
       </c>
       <c r="B41" s="18" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C41" s="5">
         <v>4006</v>
@@ -4116,14 +4397,16 @@
       <c r="Z41" s="5"/>
       <c r="AA41" s="5"/>
       <c r="AB41" s="5"/>
-      <c r="AC41" s="5"/>
-    </row>
-    <row r="42" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AC41" s="5" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="42" spans="1:29">
       <c r="A42" s="8">
         <v>40</v>
       </c>
       <c r="B42" s="18" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C42" s="5">
         <v>4007</v>
@@ -4169,14 +4452,16 @@
       <c r="Z42" s="5"/>
       <c r="AA42" s="5"/>
       <c r="AB42" s="5"/>
-      <c r="AC42" s="5"/>
-    </row>
-    <row r="43" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AC42" s="5" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="43" spans="1:29">
       <c r="A43" s="8">
         <v>41</v>
       </c>
       <c r="B43" s="18" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C43" s="5">
         <v>4008</v>
@@ -4222,14 +4507,16 @@
       <c r="Z43" s="5"/>
       <c r="AA43" s="5"/>
       <c r="AB43" s="5"/>
-      <c r="AC43" s="5"/>
-    </row>
-    <row r="44" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AC43" s="5" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="44" spans="1:29">
       <c r="A44" s="8">
         <v>42</v>
       </c>
       <c r="B44" s="18" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C44" s="5">
         <v>4009</v>
@@ -4275,9 +4562,11 @@
       <c r="Z44" s="5"/>
       <c r="AA44" s="5"/>
       <c r="AB44" s="5"/>
-      <c r="AC44" s="5"/>
-    </row>
-    <row r="45" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AC44" s="5" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="45" spans="1:29">
       <c r="A45" s="8">
         <v>43</v>
       </c>
@@ -4332,7 +4621,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="46" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:29">
       <c r="A46" s="8">
         <v>44</v>
       </c>
@@ -4387,7 +4676,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="47" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:29">
       <c r="A47" s="8">
         <v>45</v>
       </c>
@@ -4442,7 +4731,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="48" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:29">
       <c r="A48" s="8">
         <v>46</v>
       </c>
@@ -4497,7 +4786,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="49" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:29">
       <c r="A49" s="8">
         <v>47</v>
       </c>
@@ -4552,7 +4841,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="50" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:29">
       <c r="A50" s="8">
         <v>48</v>
       </c>
@@ -4607,7 +4896,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="51" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:29">
       <c r="A51" s="8">
         <v>49</v>
       </c>
@@ -4662,7 +4951,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="52" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:29">
       <c r="A52" s="8">
         <v>50</v>
       </c>
@@ -4717,7 +5006,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="53" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:29">
       <c r="A53" s="8">
         <v>51</v>
       </c>
@@ -4772,7 +5061,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="54" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:29">
       <c r="A54" s="8">
         <v>52</v>
       </c>
@@ -4827,7 +5116,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="55" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:29">
       <c r="A55" s="8">
         <v>53</v>
       </c>
@@ -4882,7 +5171,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="56" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:29">
       <c r="A56" s="8">
         <v>54</v>
       </c>
@@ -4937,7 +5226,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="57" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:29">
       <c r="A57" s="8">
         <v>55</v>
       </c>
@@ -4992,7 +5281,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="58" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:29">
       <c r="A58" s="8">
         <v>56</v>
       </c>
@@ -5047,7 +5336,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="59" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:29">
       <c r="A59" s="8">
         <v>57</v>
       </c>
@@ -5102,7 +5391,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="60" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:29">
       <c r="A60" s="8">
         <v>58</v>
       </c>
@@ -5157,7 +5446,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="61" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:29">
       <c r="A61" s="8">
         <v>59</v>
       </c>
@@ -5212,7 +5501,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="62" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:29">
       <c r="A62" s="8">
         <v>60</v>
       </c>
@@ -5267,7 +5556,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="63" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:29">
       <c r="A63" s="8">
         <v>61</v>
       </c>
@@ -5322,7 +5611,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="64" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:29">
       <c r="A64" s="8">
         <v>62</v>
       </c>
@@ -5377,7 +5666,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="65" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:29">
       <c r="A65" s="8">
         <v>63</v>
       </c>
@@ -5432,7 +5721,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="66" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:29">
       <c r="A66" s="8">
         <v>64</v>
       </c>
@@ -5487,7 +5776,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="67" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:29">
       <c r="A67" s="8">
         <v>65</v>
       </c>
@@ -5542,7 +5831,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="68" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:29">
       <c r="A68" s="8">
         <v>66</v>
       </c>
@@ -5597,7 +5886,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="69" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:29">
       <c r="A69" s="8">
         <v>67</v>
       </c>
@@ -5652,7 +5941,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="70" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:29">
       <c r="A70" s="8">
         <v>68</v>
       </c>
@@ -5715,39 +6004,1244 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B02617B-A40B-4A26-B74C-698BA2422CD4}">
+  <dimension ref="A1:G3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="2" max="2" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>298</v>
+      </c>
+      <c r="C1" t="s">
+        <v>299</v>
+      </c>
+      <c r="D1" t="s">
+        <v>300</v>
+      </c>
+      <c r="E1" t="s">
+        <v>301</v>
+      </c>
+      <c r="F1" t="s">
+        <v>359</v>
+      </c>
+      <c r="G1" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>303</v>
+      </c>
+      <c r="C2">
+        <v>2001</v>
+      </c>
+      <c r="D2">
+        <v>2002</v>
+      </c>
+      <c r="E2">
+        <v>2003</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F328B73-B520-48AB-8647-D2A4375569D3}">
+  <dimension ref="A1:D29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="2" max="2" width="10.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>253</v>
+      </c>
+      <c r="C1" t="s">
+        <v>297</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>260</v>
+      </c>
+      <c r="C2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>260</v>
+      </c>
+      <c r="C3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>260</v>
+      </c>
+      <c r="C4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>335</v>
+      </c>
+      <c r="C5">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>336</v>
+      </c>
+      <c r="C6">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>337</v>
+      </c>
+      <c r="C7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>302</v>
+      </c>
+      <c r="C8">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>338</v>
+      </c>
+      <c r="C9">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>339</v>
+      </c>
+      <c r="C10">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>340</v>
+      </c>
+      <c r="C11">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>341</v>
+      </c>
+      <c r="C12">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>342</v>
+      </c>
+      <c r="C13">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>343</v>
+      </c>
+      <c r="C14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>344</v>
+      </c>
+      <c r="C15">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>345</v>
+      </c>
+      <c r="C16">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>346</v>
+      </c>
+      <c r="C17">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>347</v>
+      </c>
+      <c r="C18">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>348</v>
+      </c>
+      <c r="C19">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>349</v>
+      </c>
+      <c r="C20">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>350</v>
+      </c>
+      <c r="C21">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>351</v>
+      </c>
+      <c r="C22">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>352</v>
+      </c>
+      <c r="C23">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>353</v>
+      </c>
+      <c r="C24">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>354</v>
+      </c>
+      <c r="C25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>355</v>
+      </c>
+      <c r="C26">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>356</v>
+      </c>
+      <c r="C27">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>357</v>
+      </c>
+      <c r="C28">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>358</v>
+      </c>
+      <c r="C29">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F3ED1EE-E2C0-4490-B5C0-DC75BE69A3AF}">
+  <dimension ref="A1:E102"/>
+  <sheetViews>
+    <sheetView topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="C106" sqref="C106"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="3" max="3" width="17.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="B2" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="B3" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="B4" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="B5" s="5">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>304</v>
+      </c>
+      <c r="D5" t="s">
+        <v>305</v>
+      </c>
+      <c r="E5" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="B6" s="5">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>308</v>
+      </c>
+      <c r="D6" t="s">
+        <v>305</v>
+      </c>
+      <c r="E6" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="B7" s="5">
+        <v>12</v>
+      </c>
+      <c r="C7" t="s">
+        <v>309</v>
+      </c>
+      <c r="D7" t="s">
+        <v>305</v>
+      </c>
+      <c r="E7" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="B8" s="5">
+        <v>13</v>
+      </c>
+      <c r="C8" t="s">
+        <v>310</v>
+      </c>
+      <c r="D8" t="s">
+        <v>305</v>
+      </c>
+      <c r="E8" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="B9" s="5">
+        <v>14</v>
+      </c>
+      <c r="C9" t="s">
+        <v>311</v>
+      </c>
+      <c r="D9" t="s">
+        <v>305</v>
+      </c>
+      <c r="E9" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="B10" s="5">
+        <v>15</v>
+      </c>
+      <c r="C10" t="s">
+        <v>312</v>
+      </c>
+      <c r="D10" t="s">
+        <v>305</v>
+      </c>
+      <c r="E10" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="B11" s="5">
+        <v>16</v>
+      </c>
+      <c r="C11" t="s">
+        <v>313</v>
+      </c>
+      <c r="D11" t="s">
+        <v>305</v>
+      </c>
+      <c r="E11" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="B12" s="5">
+        <v>17</v>
+      </c>
+      <c r="C12" t="s">
+        <v>314</v>
+      </c>
+      <c r="D12" t="s">
+        <v>305</v>
+      </c>
+      <c r="E12" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="B13" s="5">
+        <v>18</v>
+      </c>
+      <c r="C13" t="s">
+        <v>315</v>
+      </c>
+      <c r="D13" t="s">
+        <v>305</v>
+      </c>
+      <c r="E13" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="B14" s="5">
+        <v>19</v>
+      </c>
+      <c r="C14" t="s">
+        <v>316</v>
+      </c>
+      <c r="D14" t="s">
+        <v>305</v>
+      </c>
+      <c r="E14" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="B15" s="5">
+        <v>20</v>
+      </c>
+      <c r="C15" t="s">
+        <v>317</v>
+      </c>
+      <c r="D15" t="s">
+        <v>305</v>
+      </c>
+      <c r="E15" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="B16" s="5">
+        <v>21</v>
+      </c>
+      <c r="C16" t="s">
+        <v>318</v>
+      </c>
+      <c r="D16" t="s">
+        <v>305</v>
+      </c>
+      <c r="E16" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5">
+      <c r="B17" s="5">
+        <v>22</v>
+      </c>
+      <c r="C17" t="s">
+        <v>319</v>
+      </c>
+      <c r="D17" t="s">
+        <v>305</v>
+      </c>
+      <c r="E17" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5">
+      <c r="B18" s="5">
+        <v>23</v>
+      </c>
+      <c r="C18" t="s">
+        <v>320</v>
+      </c>
+      <c r="D18" t="s">
+        <v>305</v>
+      </c>
+      <c r="E18" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5">
+      <c r="B19" s="5">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>321</v>
+      </c>
+      <c r="D19" t="s">
+        <v>305</v>
+      </c>
+      <c r="E19" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5">
+      <c r="B20" s="5">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>322</v>
+      </c>
+      <c r="D20" t="s">
+        <v>305</v>
+      </c>
+      <c r="E20" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5">
+      <c r="B21" s="5">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>323</v>
+      </c>
+      <c r="D21" t="s">
+        <v>305</v>
+      </c>
+      <c r="E21" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5">
+      <c r="B22" s="5">
+        <v>27</v>
+      </c>
+      <c r="C22" t="s">
+        <v>324</v>
+      </c>
+      <c r="D22" t="s">
+        <v>305</v>
+      </c>
+      <c r="E22" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5">
+      <c r="B23" s="5">
+        <v>28</v>
+      </c>
+      <c r="C23" t="s">
+        <v>325</v>
+      </c>
+      <c r="D23" t="s">
+        <v>305</v>
+      </c>
+      <c r="E23" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5">
+      <c r="B24" s="5">
+        <v>29</v>
+      </c>
+      <c r="C24" t="s">
+        <v>326</v>
+      </c>
+      <c r="D24" t="s">
+        <v>305</v>
+      </c>
+      <c r="E24" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5">
+      <c r="B25" s="5">
+        <v>30</v>
+      </c>
+      <c r="C25" t="s">
+        <v>327</v>
+      </c>
+      <c r="D25" t="s">
+        <v>305</v>
+      </c>
+      <c r="E25" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5">
+      <c r="B26" s="5">
+        <v>31</v>
+      </c>
+      <c r="C26" t="s">
+        <v>328</v>
+      </c>
+      <c r="D26" t="s">
+        <v>305</v>
+      </c>
+      <c r="E26" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5">
+      <c r="B27" s="5">
+        <v>32</v>
+      </c>
+      <c r="C27" t="s">
+        <v>329</v>
+      </c>
+      <c r="D27" t="s">
+        <v>305</v>
+      </c>
+      <c r="E27" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5">
+      <c r="B28" s="5">
+        <v>33</v>
+      </c>
+      <c r="C28" t="s">
+        <v>330</v>
+      </c>
+      <c r="D28" t="s">
+        <v>305</v>
+      </c>
+      <c r="E28" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5">
+      <c r="B29" s="5">
+        <v>34</v>
+      </c>
+      <c r="C29" t="s">
+        <v>331</v>
+      </c>
+      <c r="D29" t="s">
+        <v>305</v>
+      </c>
+      <c r="E29" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5">
+      <c r="B30" s="5">
+        <v>35</v>
+      </c>
+      <c r="C30" t="s">
+        <v>332</v>
+      </c>
+      <c r="D30" t="s">
+        <v>305</v>
+      </c>
+      <c r="E30" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5">
+      <c r="B31" s="5">
+        <v>36</v>
+      </c>
+      <c r="C31" t="s">
+        <v>333</v>
+      </c>
+      <c r="D31" t="s">
+        <v>305</v>
+      </c>
+      <c r="E31" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5">
+      <c r="B32" s="5">
+        <v>37</v>
+      </c>
+      <c r="C32" t="s">
+        <v>334</v>
+      </c>
+      <c r="D32" t="s">
+        <v>305</v>
+      </c>
+      <c r="E32" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2">
+      <c r="B33" s="5">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2">
+      <c r="B34" s="5">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2">
+      <c r="B35" s="5">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2">
+      <c r="B36" s="5">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2">
+      <c r="B37" s="5">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2">
+      <c r="B38" s="5">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2">
+      <c r="B39" s="5">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2">
+      <c r="B40" s="5">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2">
+      <c r="B41" s="5">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2">
+      <c r="B42" s="5">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2">
+      <c r="B43" s="5">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2">
+      <c r="B44" s="5">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2">
+      <c r="B45" s="5">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="46" spans="2:2">
+      <c r="B46" s="5">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="47" spans="2:2">
+      <c r="B47" s="5">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="48" spans="2:2">
+      <c r="B48" s="5">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2">
+      <c r="B49" s="5">
+        <v>2002</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2">
+      <c r="B50" s="5">
+        <v>2003</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2">
+      <c r="B51" s="5">
+        <v>2004</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2">
+      <c r="B52" s="5">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2">
+      <c r="B53" s="5">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2">
+      <c r="B54" s="5">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="55" spans="2:2">
+      <c r="B55" s="5">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="56" spans="2:2">
+      <c r="B56" s="5">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="57" spans="2:2">
+      <c r="B57" s="5">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="58" spans="2:2">
+      <c r="B58" s="5">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="59" spans="2:2">
+      <c r="B59" s="5">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="60" spans="2:2">
+      <c r="B60" s="5">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="61" spans="2:2">
+      <c r="B61" s="5">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="62" spans="2:2">
+      <c r="B62" s="5">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="63" spans="2:2">
+      <c r="B63" s="5">
+        <v>3001</v>
+      </c>
+    </row>
+    <row r="64" spans="2:2">
+      <c r="B64" s="5">
+        <v>3002</v>
+      </c>
+    </row>
+    <row r="65" spans="2:2">
+      <c r="B65" s="5">
+        <v>3003</v>
+      </c>
+    </row>
+    <row r="66" spans="2:2">
+      <c r="B66" s="5">
+        <v>3004</v>
+      </c>
+    </row>
+    <row r="67" spans="2:2">
+      <c r="B67" s="5">
+        <v>4001</v>
+      </c>
+    </row>
+    <row r="68" spans="2:2">
+      <c r="B68" s="5">
+        <v>4002</v>
+      </c>
+    </row>
+    <row r="69" spans="2:2">
+      <c r="B69" s="5">
+        <v>4003</v>
+      </c>
+    </row>
+    <row r="70" spans="2:2">
+      <c r="B70" s="5">
+        <v>4004</v>
+      </c>
+    </row>
+    <row r="71" spans="2:2">
+      <c r="B71" s="5">
+        <v>4005</v>
+      </c>
+    </row>
+    <row r="72" spans="2:2">
+      <c r="B72" s="5">
+        <v>4006</v>
+      </c>
+    </row>
+    <row r="73" spans="2:2">
+      <c r="B73" s="5">
+        <v>4007</v>
+      </c>
+    </row>
+    <row r="74" spans="2:2">
+      <c r="B74" s="5">
+        <v>4008</v>
+      </c>
+    </row>
+    <row r="75" spans="2:2">
+      <c r="B75" s="5">
+        <v>4009</v>
+      </c>
+    </row>
+    <row r="76" spans="2:2">
+      <c r="B76" s="5">
+        <v>4010</v>
+      </c>
+    </row>
+    <row r="77" spans="2:2">
+      <c r="B77" s="5">
+        <v>4011</v>
+      </c>
+    </row>
+    <row r="78" spans="2:2">
+      <c r="B78" s="5">
+        <v>4012</v>
+      </c>
+    </row>
+    <row r="79" spans="2:2">
+      <c r="B79" s="5">
+        <v>4013</v>
+      </c>
+    </row>
+    <row r="80" spans="2:2">
+      <c r="B80" s="5">
+        <v>4014</v>
+      </c>
+    </row>
+    <row r="81" spans="2:2">
+      <c r="B81" s="5">
+        <v>4015</v>
+      </c>
+    </row>
+    <row r="82" spans="2:2">
+      <c r="B82" s="5">
+        <v>4016</v>
+      </c>
+    </row>
+    <row r="83" spans="2:2">
+      <c r="B83" s="5">
+        <v>4017</v>
+      </c>
+    </row>
+    <row r="84" spans="2:2">
+      <c r="B84" s="5">
+        <v>4018</v>
+      </c>
+    </row>
+    <row r="85" spans="2:2">
+      <c r="B85" s="5">
+        <v>4019</v>
+      </c>
+    </row>
+    <row r="86" spans="2:2">
+      <c r="B86" s="5">
+        <v>4020</v>
+      </c>
+    </row>
+    <row r="87" spans="2:2">
+      <c r="B87" s="5">
+        <v>4021</v>
+      </c>
+    </row>
+    <row r="88" spans="2:2">
+      <c r="B88" s="5">
+        <v>4022</v>
+      </c>
+    </row>
+    <row r="89" spans="2:2">
+      <c r="B89" s="5">
+        <v>4023</v>
+      </c>
+    </row>
+    <row r="90" spans="2:2">
+      <c r="B90" s="5">
+        <v>4024</v>
+      </c>
+    </row>
+    <row r="91" spans="2:2">
+      <c r="B91" s="5">
+        <v>4025</v>
+      </c>
+    </row>
+    <row r="92" spans="2:2">
+      <c r="B92" s="5">
+        <v>5001</v>
+      </c>
+    </row>
+    <row r="93" spans="2:2">
+      <c r="B93" s="5">
+        <v>5002</v>
+      </c>
+    </row>
+    <row r="94" spans="2:2">
+      <c r="B94" s="5">
+        <v>5003</v>
+      </c>
+    </row>
+    <row r="95" spans="2:2">
+      <c r="B95" s="5">
+        <v>5004</v>
+      </c>
+    </row>
+    <row r="96" spans="2:2">
+      <c r="B96" s="5">
+        <v>5005</v>
+      </c>
+    </row>
+    <row r="97" spans="2:3">
+      <c r="B97" s="5">
+        <v>5006</v>
+      </c>
+    </row>
+    <row r="98" spans="2:3">
+      <c r="B98" s="5">
+        <v>5007</v>
+      </c>
+    </row>
+    <row r="99" spans="2:3">
+      <c r="B99" s="5">
+        <v>6001</v>
+      </c>
+    </row>
+    <row r="100" spans="2:3">
+      <c r="B100" s="5">
+        <v>6002</v>
+      </c>
+    </row>
+    <row r="101" spans="2:3">
+      <c r="B101" s="5">
+        <v>6003</v>
+      </c>
+    </row>
+    <row r="102" spans="2:3">
+      <c r="B102" s="20">
+        <v>10111</v>
+      </c>
+      <c r="C102" t="s">
+        <v>360</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B8:O30"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="K42" sqref="K42"/>
+      <selection activeCell="K44" sqref="K44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="5" max="5" width="9.625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B8" s="19" t="s">
+    <row r="8" spans="2:9">
+      <c r="B8" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19" t="s">
+      <c r="C8" s="22"/>
+      <c r="D8" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19" t="s">
+      <c r="E8" s="22"/>
+      <c r="F8" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="G8" s="19"/>
-      <c r="H8" s="19" t="s">
+      <c r="G8" s="22"/>
+      <c r="H8" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="I8" s="19"/>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="I8" s="22"/>
+    </row>
+    <row r="9" spans="2:9">
       <c r="B9" s="2">
         <v>1</v>
       </c>
@@ -5773,7 +7267,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:9">
       <c r="B10" s="2">
         <v>2</v>
       </c>
@@ -5799,7 +7293,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:9">
       <c r="B11" s="3">
         <v>3</v>
       </c>
@@ -5819,7 +7313,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:9">
       <c r="B12" s="3">
         <v>4</v>
       </c>
@@ -5833,7 +7327,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:9">
       <c r="B13" s="3">
         <v>5</v>
       </c>
@@ -5847,7 +7341,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:9">
       <c r="B14" s="3">
         <v>6</v>
       </c>
@@ -5861,7 +7355,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:9">
       <c r="D15" s="1">
         <v>6</v>
       </c>
@@ -5869,7 +7363,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:9">
       <c r="D16" s="1">
         <v>7</v>
       </c>
@@ -5877,7 +7371,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:15">
       <c r="D17" s="1">
         <v>8</v>
       </c>
@@ -5885,7 +7379,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:15">
       <c r="D18" s="1">
         <v>9</v>
       </c>
@@ -5893,27 +7387,27 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B21" s="19" t="s">
+    <row r="21" spans="2:15">
+      <c r="B21" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="C21" s="19"/>
-      <c r="D21" s="22" t="s">
+      <c r="C21" s="22"/>
+      <c r="D21" s="24" t="s">
         <v>91</v>
       </c>
-      <c r="E21" s="23"/>
-      <c r="H21" s="19" t="s">
+      <c r="E21" s="25"/>
+      <c r="H21" s="22" t="s">
         <v>142</v>
       </c>
-      <c r="I21" s="19"/>
-      <c r="J21" s="19"/>
-      <c r="K21" s="19"/>
-      <c r="L21" s="19"/>
-      <c r="M21" s="19"/>
-      <c r="N21" s="19"/>
-      <c r="O21" s="19"/>
-    </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="I21" s="22"/>
+      <c r="J21" s="22"/>
+      <c r="K21" s="22"/>
+      <c r="L21" s="22"/>
+      <c r="M21" s="22"/>
+      <c r="N21" s="22"/>
+      <c r="O21" s="22"/>
+    </row>
+    <row r="22" spans="2:15">
       <c r="B22" s="9">
         <v>0</v>
       </c>
@@ -5926,20 +7420,20 @@
       <c r="E22" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="H22" s="20" t="s">
+      <c r="H22" s="23" t="s">
         <v>143</v>
       </c>
-      <c r="I22" s="20"/>
-      <c r="J22" s="21" t="s">
+      <c r="I22" s="23"/>
+      <c r="J22" s="26" t="s">
         <v>145</v>
       </c>
-      <c r="K22" s="21"/>
-      <c r="L22" s="21"/>
-      <c r="M22" s="21"/>
-      <c r="N22" s="21"/>
-      <c r="O22" s="21"/>
-    </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="K22" s="26"/>
+      <c r="L22" s="26"/>
+      <c r="M22" s="26"/>
+      <c r="N22" s="26"/>
+      <c r="O22" s="26"/>
+    </row>
+    <row r="23" spans="2:15">
       <c r="B23" s="9">
         <v>1</v>
       </c>
@@ -5952,20 +7446,20 @@
       <c r="E23" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="H23" s="20" t="s">
+      <c r="H23" s="23" t="s">
         <v>144</v>
       </c>
-      <c r="I23" s="20"/>
-      <c r="J23" s="21" t="s">
+      <c r="I23" s="23"/>
+      <c r="J23" s="26" t="s">
         <v>146</v>
       </c>
-      <c r="K23" s="21"/>
-      <c r="L23" s="21"/>
-      <c r="M23" s="21"/>
-      <c r="N23" s="21"/>
-      <c r="O23" s="21"/>
-    </row>
-    <row r="24" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="K23" s="26"/>
+      <c r="L23" s="26"/>
+      <c r="M23" s="26"/>
+      <c r="N23" s="26"/>
+      <c r="O23" s="26"/>
+    </row>
+    <row r="24" spans="2:15">
       <c r="B24" s="9">
         <v>2</v>
       </c>
@@ -5973,7 +7467,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:15">
       <c r="B25" s="1">
         <v>3</v>
       </c>
@@ -5981,65 +7475,57 @@
         <v>89</v>
       </c>
     </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B28" s="19" t="s">
-        <v>154</v>
-      </c>
-      <c r="C28" s="19"/>
-      <c r="D28" s="19"/>
-      <c r="E28" s="19"/>
-      <c r="H28" s="19" t="s">
+    <row r="28" spans="2:15">
+      <c r="B28" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="C28" s="22"/>
+      <c r="D28" s="22"/>
+      <c r="E28" s="22"/>
+      <c r="H28" s="22" t="s">
+        <v>189</v>
+      </c>
+      <c r="I28" s="22"/>
+      <c r="J28" s="22"/>
+      <c r="K28" s="22"/>
+      <c r="L28" s="22"/>
+    </row>
+    <row r="29" spans="2:15">
+      <c r="B29" s="13">
+        <v>0</v>
+      </c>
+      <c r="C29" s="23" t="s">
+        <v>155</v>
+      </c>
+      <c r="D29" s="23"/>
+      <c r="E29" s="23"/>
+      <c r="H29" s="23" t="s">
         <v>190</v>
       </c>
-      <c r="I28" s="19"/>
-      <c r="J28" s="19"/>
-      <c r="K28" s="19"/>
-      <c r="L28" s="19"/>
-    </row>
-    <row r="29" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B29" s="13">
-        <v>0</v>
-      </c>
-      <c r="C29" s="20" t="s">
+      <c r="I29" s="23"/>
+      <c r="J29" s="23"/>
+      <c r="K29" s="23"/>
+      <c r="L29" s="23"/>
+    </row>
+    <row r="30" spans="2:15">
+      <c r="B30" s="13">
+        <v>1</v>
+      </c>
+      <c r="C30" s="23" t="s">
         <v>156</v>
       </c>
-      <c r="D29" s="20"/>
-      <c r="E29" s="20"/>
-      <c r="H29" s="20" t="s">
+      <c r="D30" s="23"/>
+      <c r="E30" s="23"/>
+      <c r="H30" s="23" t="s">
         <v>191</v>
       </c>
-      <c r="I29" s="20"/>
-      <c r="J29" s="20"/>
-      <c r="K29" s="20"/>
-      <c r="L29" s="20"/>
-    </row>
-    <row r="30" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B30" s="13">
-        <v>1</v>
-      </c>
-      <c r="C30" s="20" t="s">
-        <v>157</v>
-      </c>
-      <c r="D30" s="20"/>
-      <c r="E30" s="20"/>
-      <c r="H30" s="20" t="s">
-        <v>192</v>
-      </c>
-      <c r="I30" s="20"/>
-      <c r="J30" s="20"/>
-      <c r="K30" s="20"/>
-      <c r="L30" s="20"/>
+      <c r="I30" s="23"/>
+      <c r="J30" s="23"/>
+      <c r="K30" s="23"/>
+      <c r="L30" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="H21:O21"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
     <mergeCell ref="B28:E28"/>
     <mergeCell ref="C29:E29"/>
     <mergeCell ref="C30:E30"/>
@@ -6049,13 +7535,21 @@
     <mergeCell ref="H28:L28"/>
     <mergeCell ref="H29:L29"/>
     <mergeCell ref="H30:L30"/>
+    <mergeCell ref="H21:O21"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA2088CD-3606-4FB6-A98E-278F7E269561}">
   <dimension ref="A2:G17"/>
   <sheetViews>
@@ -6063,29 +7557,29 @@
       <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="5" max="5" width="13.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="20" t="s">
+    <row r="2" spans="1:7">
+      <c r="A2" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="20"/>
-      <c r="B3" s="20"/>
-      <c r="C3" s="20"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="20" t="s">
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="23"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="B4" s="20"/>
-      <c r="C4" s="20"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="23"/>
       <c r="D4" s="5" t="s">
         <v>71</v>
       </c>
@@ -6093,10 +7587,10 @@
         <v>72</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="24"/>
-      <c r="B5" s="24"/>
-      <c r="C5" s="24"/>
+    <row r="5" spans="1:7">
+      <c r="A5" s="27"/>
+      <c r="B5" s="27"/>
+      <c r="C5" s="27"/>
       <c r="D5" s="5" t="s">
         <v>73</v>
       </c>
@@ -6104,12 +7598,12 @@
         <v>74</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="20" t="s">
+    <row r="6" spans="1:7">
+      <c r="A6" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="B6" s="20"/>
-      <c r="C6" s="20"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="23"/>
       <c r="D6" s="5" t="s">
         <v>71</v>
       </c>
@@ -6117,10 +7611,10 @@
         <v>76</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="20"/>
-      <c r="B7" s="20"/>
-      <c r="C7" s="20"/>
+    <row r="7" spans="1:7">
+      <c r="A7" s="23"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="23"/>
       <c r="D7" s="5" t="s">
         <v>77</v>
       </c>
@@ -6128,12 +7622,12 @@
         <v>78</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="20" t="s">
+    <row r="8" spans="1:7">
+      <c r="A8" s="23" t="s">
         <v>99</v>
       </c>
-      <c r="B8" s="20"/>
-      <c r="C8" s="20"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="23"/>
       <c r="D8" s="5" t="s">
         <v>71</v>
       </c>
@@ -6141,10 +7635,10 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="20"/>
-      <c r="B9" s="20"/>
-      <c r="C9" s="20"/>
+    <row r="9" spans="1:7">
+      <c r="A9" s="23"/>
+      <c r="B9" s="23"/>
+      <c r="C9" s="23"/>
       <c r="D9" s="5" t="s">
         <v>73</v>
       </c>
@@ -6152,53 +7646,53 @@
         <v>74</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="20" t="s">
+    <row r="10" spans="1:7">
+      <c r="A10" s="23" t="s">
         <v>102</v>
       </c>
-      <c r="B10" s="20"/>
-      <c r="C10" s="20"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="23"/>
       <c r="D10" s="5" t="s">
         <v>71</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="F10" s="20" t="s">
-        <v>160</v>
-      </c>
-      <c r="G10" s="20"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="20"/>
-      <c r="B11" s="20"/>
-      <c r="C11" s="20"/>
+      <c r="F10" s="23" t="s">
+        <v>159</v>
+      </c>
+      <c r="G10" s="23"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="23"/>
+      <c r="B11" s="23"/>
+      <c r="C11" s="23"/>
       <c r="D11" s="5" t="s">
         <v>73</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="20" t="s">
-        <v>196</v>
-      </c>
-      <c r="B12" s="20"/>
-      <c r="C12" s="20"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="23"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="23" t="s">
+        <v>195</v>
+      </c>
+      <c r="B12" s="23"/>
+      <c r="C12" s="23"/>
       <c r="D12" s="5" t="s">
         <v>71</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="20"/>
-      <c r="B13" s="20"/>
-      <c r="C13" s="20"/>
+        <v>196</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="23"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="23"/>
       <c r="D13" s="5" t="s">
         <v>73</v>
       </c>
@@ -6206,23 +7700,23 @@
         <v>74</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="20" t="s">
-        <v>202</v>
-      </c>
-      <c r="B14" s="20"/>
-      <c r="C14" s="20"/>
+    <row r="14" spans="1:7">
+      <c r="A14" s="23" t="s">
+        <v>201</v>
+      </c>
+      <c r="B14" s="23"/>
+      <c r="C14" s="23"/>
       <c r="D14" s="5" t="s">
         <v>71</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="20"/>
-      <c r="B15" s="20"/>
-      <c r="C15" s="20"/>
+        <v>202</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="23"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="23"/>
       <c r="D15" s="5" t="s">
         <v>73</v>
       </c>
@@ -6230,23 +7724,23 @@
         <v>74</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="20" t="s">
-        <v>232</v>
-      </c>
-      <c r="B16" s="20"/>
-      <c r="C16" s="20"/>
+    <row r="16" spans="1:7">
+      <c r="A16" s="23" t="s">
+        <v>231</v>
+      </c>
+      <c r="B16" s="23"/>
+      <c r="C16" s="23"/>
       <c r="D16" s="5" t="s">
         <v>71</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="20"/>
-      <c r="B17" s="20"/>
-      <c r="C17" s="20"/>
+        <v>232</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="23"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="23"/>
       <c r="D17" s="5" t="s">
         <v>73</v>
       </c>
@@ -6273,13 +7767,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B82A9F54-8058-4624-AFFE-75B7854B6E59}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q15" sqref="Q15"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="2" max="2" width="12.25" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.375" bestFit="1" customWidth="1"/>
@@ -6287,7 +7781,7 @@
     <col min="6" max="6" width="24.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
@@ -6304,10 +7798,10 @@
         <v>147</v>
       </c>
       <c r="F1" s="16" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="5">
         <v>0</v>
       </c>
@@ -6315,7 +7809,7 @@
         <v>109</v>
       </c>
       <c r="C2" s="5">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="D2" s="5">
         <v>70</v>
@@ -6324,10 +7818,10 @@
         <v>1</v>
       </c>
       <c r="F2" s="17" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="5">
         <v>1</v>
       </c>
@@ -6335,7 +7829,7 @@
         <v>114</v>
       </c>
       <c r="C3" s="5">
-        <v>20</v>
+        <v>200</v>
       </c>
       <c r="D3" s="5">
         <v>50</v>
@@ -6344,10 +7838,10 @@
         <v>2</v>
       </c>
       <c r="F3" s="17" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="5">
         <v>2</v>
       </c>
@@ -6355,7 +7849,7 @@
         <v>119</v>
       </c>
       <c r="C4" s="5">
-        <v>30</v>
+        <v>300</v>
       </c>
       <c r="D4" s="5">
         <v>100</v>
@@ -6364,8 +7858,22 @@
         <v>3</v>
       </c>
       <c r="F4" s="17" t="s">
-        <v>207</v>
-      </c>
+        <v>206</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="18">
+        <v>3</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="C5" s="18">
+        <v>400</v>
+      </c>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -6378,14 +7886,14 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="6.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="3.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="4.875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.25" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.25" bestFit="1" customWidth="1"/>
@@ -6394,7 +7902,7 @@
     <col min="9" max="9" width="23.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
@@ -6405,10 +7913,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="16" t="s">
+        <v>228</v>
+      </c>
+      <c r="E1" s="16" t="s">
         <v>229</v>
-      </c>
-      <c r="E1" s="16" t="s">
-        <v>230</v>
       </c>
       <c r="F1" s="16" t="s">
         <v>105</v>
@@ -6423,7 +7931,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9">
       <c r="A2" s="5">
         <v>0</v>
       </c>
@@ -6431,7 +7939,7 @@
         <v>109</v>
       </c>
       <c r="C2" s="5">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="D2" s="18">
         <v>17</v>
@@ -6446,13 +7954,13 @@
         <v>112</v>
       </c>
       <c r="H2" s="18" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I2" s="18" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9">
       <c r="A3" s="5">
         <v>1</v>
       </c>
@@ -6460,7 +7968,7 @@
         <v>114</v>
       </c>
       <c r="C3" s="5">
-        <v>20</v>
+        <v>200</v>
       </c>
       <c r="D3" s="18">
         <v>18</v>
@@ -6475,13 +7983,13 @@
         <v>117</v>
       </c>
       <c r="H3" s="18" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="I3" s="18" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9">
       <c r="A4" s="5">
         <v>2</v>
       </c>
@@ -6489,7 +7997,7 @@
         <v>119</v>
       </c>
       <c r="C4" s="5">
-        <v>30</v>
+        <v>300</v>
       </c>
       <c r="D4" s="18">
         <v>19</v>
@@ -6504,7 +8012,7 @@
         <v>122</v>
       </c>
       <c r="H4" s="18" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I4" s="18" t="s">
         <v>123</v>
@@ -6517,6 +8025,92 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5873BC6-3FBB-4464-96A0-957C2249DD3D}">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B1" t="s">
+        <v>265</v>
+      </c>
+      <c r="C1" t="s">
+        <v>266</v>
+      </c>
+      <c r="D1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C2" t="s">
+        <v>268</v>
+      </c>
+      <c r="D2">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C3" t="s">
+        <v>269</v>
+      </c>
+      <c r="D3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C4" t="s">
+        <v>292</v>
+      </c>
+      <c r="D4">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>109</v>
+      </c>
+      <c r="C5" t="s">
+        <v>293</v>
+      </c>
+      <c r="D5">
+        <v>104</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC7B8EC9-75A3-458E-BAF9-0D53F939696A}">
   <dimension ref="A1:U4"/>
   <sheetViews>
@@ -6524,7 +8118,7 @@
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="4" max="4" width="19.875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20.125" bestFit="1" customWidth="1"/>
@@ -6546,7 +8140,7 @@
     <col min="21" max="21" width="14.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
@@ -6554,64 +8148,64 @@
         <v>2</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D1" s="16" t="s">
+        <v>211</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>213</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>230</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>215</v>
+      </c>
+      <c r="H1" s="16" t="s">
         <v>212</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="I1" s="16" t="s">
         <v>214</v>
       </c>
-      <c r="F1" s="16" t="s">
-        <v>231</v>
-      </c>
-      <c r="G1" s="16" t="s">
+      <c r="J1" s="16" t="s">
         <v>216</v>
       </c>
-      <c r="H1" s="16" t="s">
-        <v>213</v>
-      </c>
-      <c r="I1" s="16" t="s">
-        <v>215</v>
-      </c>
-      <c r="J1" s="16" t="s">
+      <c r="K1" s="16" t="s">
         <v>217</v>
       </c>
-      <c r="K1" s="16" t="s">
+      <c r="L1" s="16" t="s">
         <v>218</v>
       </c>
-      <c r="L1" s="16" t="s">
+      <c r="M1" s="16" t="s">
         <v>219</v>
       </c>
-      <c r="M1" s="16" t="s">
+      <c r="N1" s="16" t="s">
         <v>220</v>
       </c>
-      <c r="N1" s="16" t="s">
+      <c r="O1" s="16" t="s">
         <v>221</v>
       </c>
-      <c r="O1" s="16" t="s">
+      <c r="P1" s="16" t="s">
         <v>222</v>
       </c>
-      <c r="P1" s="16" t="s">
+      <c r="Q1" s="16" t="s">
         <v>223</v>
       </c>
-      <c r="Q1" s="16" t="s">
+      <c r="R1" s="16" t="s">
         <v>224</v>
       </c>
-      <c r="R1" s="16" t="s">
+      <c r="S1" s="16" t="s">
         <v>225</v>
       </c>
-      <c r="S1" s="16" t="s">
+      <c r="T1" s="16" t="s">
         <v>226</v>
       </c>
-      <c r="T1" s="16" t="s">
+      <c r="U1" s="16" t="s">
         <v>227</v>
       </c>
-      <c r="U1" s="16" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:21">
       <c r="A2" s="5">
         <v>0</v>
       </c>
@@ -6628,7 +8222,7 @@
         <v>30</v>
       </c>
       <c r="F2" s="15" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G2" s="5">
         <v>31</v>
@@ -6637,7 +8231,7 @@
         <v>80</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="J2" s="5">
         <v>81</v>
@@ -6646,7 +8240,7 @@
         <v>110</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="M2" s="5">
         <v>111</v>
@@ -6670,7 +8264,7 @@
       </c>
       <c r="U2" s="5"/>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:21">
       <c r="A3" s="5">
         <v>3</v>
       </c>
@@ -6723,7 +8317,7 @@
       </c>
       <c r="U3" s="5"/>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21">
       <c r="A4" s="5">
         <v>4</v>
       </c>
@@ -6775,98 +8369,6 @@
         <v>200</v>
       </c>
       <c r="U4" s="5"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97D99733-F3B3-43EE-A264-5AE77953B7F9}">
-  <dimension ref="A1:G4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="15.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.25" customWidth="1"/>
-    <col min="4" max="4" width="82" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="71.875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B1" t="s">
-        <v>125</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>152</v>
-      </c>
-      <c r="E1" t="s">
-        <v>155</v>
-      </c>
-      <c r="F1" t="s">
-        <v>153</v>
-      </c>
-      <c r="G1" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>250</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
-        <v>158</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2" t="s">
-        <v>159</v>
-      </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>150</v>
-      </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>151</v>
-      </c>
-      <c r="C4">
-        <v>3</v>
-      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -6882,32 +8384,32 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="2" max="2" width="11.625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B1" t="s">
         <v>198</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>199</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>200</v>
       </c>
-      <c r="D1" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C2" s="5">
         <v>3001</v>
@@ -6916,7 +8418,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4">
       <c r="A3">
         <v>1</v>
       </c>
@@ -6930,7 +8432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4">
       <c r="A4">
         <v>2</v>
       </c>
@@ -6944,7 +8446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4">
       <c r="A5">
         <v>3</v>
       </c>
@@ -6965,14 +8467,106 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97D99733-F3B3-43EE-A264-5AE77953B7F9}">
+  <dimension ref="A1:G4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="2" max="2" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.25" customWidth="1"/>
+    <col min="4" max="4" width="82" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="71.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>151</v>
+      </c>
+      <c r="E1" t="s">
+        <v>154</v>
+      </c>
+      <c r="F1" t="s">
+        <v>152</v>
+      </c>
+      <c r="G1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>249</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>157</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2" t="s">
+        <v>158</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>149</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>150</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D62E413-8562-4B0A-81AC-8B3DB41B990E}">
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H44" sqref="H44"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="2" max="2" width="9.125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.375" bestFit="1" customWidth="1"/>
@@ -6983,7 +8577,7 @@
     <col min="8" max="8" width="75.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -6997,19 +8591,19 @@
         <v>141</v>
       </c>
       <c r="E1" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="F1" s="14" t="s">
         <v>188</v>
       </c>
-      <c r="F1" s="14" t="s">
-        <v>189</v>
-      </c>
       <c r="G1" s="14" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H1" s="12" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8">
       <c r="A2" s="8">
         <v>0</v>
       </c>
@@ -7023,19 +8617,19 @@
         <v>70</v>
       </c>
       <c r="E2" s="15" t="s">
+        <v>207</v>
+      </c>
+      <c r="F2" s="15" t="s">
         <v>208</v>
-      </c>
-      <c r="F2" s="15" t="s">
-        <v>209</v>
       </c>
       <c r="G2" s="15">
         <v>10</v>
       </c>
       <c r="H2" s="18" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="8">
         <v>3</v>
       </c>
@@ -7050,10 +8644,10 @@
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
       <c r="H3" s="18" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="8">
         <v>4</v>
       </c>
@@ -7068,10 +8662,10 @@
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
       <c r="H4" s="18" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="8">
         <v>5</v>
       </c>
@@ -7086,10 +8680,10 @@
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
       <c r="H5" s="18" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="8">
         <v>6</v>
       </c>
@@ -7104,10 +8698,10 @@
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
       <c r="H6" s="18" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="8">
         <v>7</v>
       </c>
@@ -7122,10 +8716,10 @@
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
       <c r="H7" s="18" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="8">
         <v>8</v>
       </c>
@@ -7140,10 +8734,10 @@
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
       <c r="H8" s="18" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="8">
         <v>9</v>
       </c>
@@ -7158,10 +8752,10 @@
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
       <c r="H9" s="18" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="8">
         <v>10</v>
       </c>
@@ -7176,10 +8770,10 @@
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
       <c r="H10" s="18" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="8">
         <v>11</v>
       </c>
@@ -7194,10 +8788,10 @@
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
       <c r="H11" s="18" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="8">
         <v>12</v>
       </c>
@@ -7212,10 +8806,10 @@
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
       <c r="H12" s="18" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="8">
         <v>13</v>
       </c>
@@ -7230,7 +8824,7 @@
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
       <c r="H13" s="18" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
   </sheetData>
@@ -7239,15 +8833,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C74065DC-F54E-468F-BBC7-10F5171E7690}">
   <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="2" max="2" width="11.875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.25" bestFit="1" customWidth="1"/>
@@ -7259,499 +8853,96 @@
     <col min="9" max="9" width="18.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>252</v>
+      </c>
+      <c r="C1" t="s">
         <v>253</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
+        <v>259</v>
+      </c>
+      <c r="E1" t="s">
         <v>254</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" s="19" t="s">
+        <v>255</v>
+      </c>
+      <c r="G1" s="19" t="s">
+        <v>256</v>
+      </c>
+      <c r="H1" s="19" t="s">
+        <v>257</v>
+      </c>
+      <c r="I1" s="19" t="s">
+        <v>258</v>
+      </c>
+      <c r="J1" s="19" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>294</v>
+      </c>
+      <c r="C2" t="s">
+        <v>260</v>
+      </c>
+      <c r="D2" t="s">
+        <v>295</v>
+      </c>
+      <c r="E2" t="s">
         <v>261</v>
       </c>
-      <c r="E1" t="s">
-        <v>255</v>
-      </c>
-      <c r="F1" s="25" t="s">
-        <v>256</v>
-      </c>
-      <c r="G1" s="25" t="s">
-        <v>257</v>
-      </c>
-      <c r="H1" s="25" t="s">
-        <v>258</v>
-      </c>
-      <c r="I1" s="25" t="s">
-        <v>259</v>
-      </c>
-      <c r="J1" s="25" t="s">
+      <c r="I2" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>294</v>
+      </c>
+      <c r="C3" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="D3" t="s">
+        <v>295</v>
+      </c>
+      <c r="E3" t="s">
+        <v>263</v>
+      </c>
+      <c r="I3" t="s">
         <v>262</v>
       </c>
-      <c r="C2" t="s">
-        <v>263</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2" t="s">
-        <v>264</v>
-      </c>
-      <c r="I2" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>262</v>
-      </c>
-      <c r="C3" t="s">
-        <v>266</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3" t="s">
-        <v>267</v>
-      </c>
-      <c r="I3" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4" t="s">
+        <v>294</v>
+      </c>
+      <c r="C4" t="s">
+        <v>260</v>
+      </c>
+      <c r="D4" t="s">
+        <v>295</v>
+      </c>
+      <c r="E4" t="s">
+        <v>264</v>
+      </c>
+      <c r="I4" t="s">
         <v>262</v>
-      </c>
-      <c r="C4" t="s">
-        <v>268</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4" t="s">
-        <v>269</v>
-      </c>
-      <c r="I4" t="s">
-        <v>265</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F3ED1EE-E2C0-4490-B5C0-DC75BE69A3AF}">
-  <dimension ref="A1:C76"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="R34" sqref="R34"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>148</v>
-      </c>
-      <c r="B1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B2" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B3" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B4" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B5" s="5">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B6" s="5">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B7" s="5">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B8" s="5">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B9" s="5">
-        <v>1002</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B10" s="5">
-        <v>1003</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B11" s="5">
-        <v>1004</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B12" s="5">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B13" s="5">
-        <v>1006</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B14" s="5">
-        <v>1007</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B15" s="5">
-        <v>1008</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B16" s="5">
-        <v>1009</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B17" s="5">
-        <v>1010</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B18" s="5">
-        <v>1011</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B19" s="5">
-        <v>1012</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B20" s="5">
-        <v>1013</v>
-      </c>
-    </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B21" s="5">
-        <v>1014</v>
-      </c>
-    </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B22" s="5">
-        <v>1015</v>
-      </c>
-    </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B23" s="5">
-        <v>2001</v>
-      </c>
-    </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B24" s="5">
-        <v>2002</v>
-      </c>
-    </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B25" s="5">
-        <v>2003</v>
-      </c>
-    </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B26" s="5">
-        <v>2004</v>
-      </c>
-    </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B27" s="5">
-        <v>2005</v>
-      </c>
-    </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B28" s="5">
-        <v>2006</v>
-      </c>
-    </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B29" s="5">
-        <v>2007</v>
-      </c>
-    </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B30" s="5">
-        <v>2008</v>
-      </c>
-    </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B31" s="5">
-        <v>2009</v>
-      </c>
-    </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B32" s="5">
-        <v>2010</v>
-      </c>
-    </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B33" s="5">
-        <v>2011</v>
-      </c>
-    </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B34" s="5">
-        <v>2012</v>
-      </c>
-    </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B35" s="5">
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B36" s="5">
-        <v>2014</v>
-      </c>
-    </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B37" s="5">
-        <v>2015</v>
-      </c>
-    </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B38" s="5">
-        <v>3001</v>
-      </c>
-    </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B39" s="5">
-        <v>3002</v>
-      </c>
-    </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B40" s="5">
-        <v>3003</v>
-      </c>
-    </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B41" s="5">
-        <v>3004</v>
-      </c>
-    </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B42" s="5">
-        <v>4001</v>
-      </c>
-    </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B43" s="5">
-        <v>4002</v>
-      </c>
-    </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B44" s="5">
-        <v>4003</v>
-      </c>
-    </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B45" s="5">
-        <v>4004</v>
-      </c>
-    </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B46" s="5">
-        <v>4005</v>
-      </c>
-    </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B47" s="5">
-        <v>4006</v>
-      </c>
-    </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B48" s="5">
-        <v>4007</v>
-      </c>
-    </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B49" s="5">
-        <v>4008</v>
-      </c>
-    </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B50" s="5">
-        <v>4009</v>
-      </c>
-    </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B51" s="5">
-        <v>4010</v>
-      </c>
-    </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B52" s="5">
-        <v>4011</v>
-      </c>
-    </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B53" s="5">
-        <v>4012</v>
-      </c>
-    </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B54" s="5">
-        <v>4013</v>
-      </c>
-    </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B55" s="5">
-        <v>4014</v>
-      </c>
-    </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B56" s="5">
-        <v>4015</v>
-      </c>
-    </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B57" s="5">
-        <v>4016</v>
-      </c>
-    </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B58" s="5">
-        <v>4017</v>
-      </c>
-    </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B59" s="5">
-        <v>4018</v>
-      </c>
-    </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B60" s="5">
-        <v>4019</v>
-      </c>
-    </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B61" s="5">
-        <v>4020</v>
-      </c>
-    </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B62" s="5">
-        <v>4021</v>
-      </c>
-    </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B63" s="5">
-        <v>4022</v>
-      </c>
-    </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B64" s="5">
-        <v>4023</v>
-      </c>
-    </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B65" s="5">
-        <v>4024</v>
-      </c>
-    </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B66" s="5">
-        <v>4025</v>
-      </c>
-    </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B67" s="5">
-        <v>5001</v>
-      </c>
-    </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B68" s="5">
-        <v>5002</v>
-      </c>
-    </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B69" s="5">
-        <v>5003</v>
-      </c>
-    </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B70" s="5">
-        <v>5004</v>
-      </c>
-    </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B71" s="5">
-        <v>5005</v>
-      </c>
-    </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B72" s="5">
-        <v>5006</v>
-      </c>
-    </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B73" s="5">
-        <v>5007</v>
-      </c>
-    </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B74" s="5">
-        <v>6001</v>
-      </c>
-    </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B75" s="5">
-        <v>6002</v>
-      </c>
-    </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B76" s="5">
-        <v>6003</v>
       </c>
     </row>
   </sheetData>

--- a/테이블/테이블 원본/Table_v_1.2.3.xlsx
+++ b/테이블/테이블 원본/Table_v_1.2.3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\hosung\게임기획\진심모드\테이블\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{294CC2D6-99E7-4298-92B9-7940CF14700B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95920E02-9A77-442D-96CC-5622BB4B6028}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ITEM" sheetId="2" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="363">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="878" uniqueCount="463">
   <si>
     <t>index</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1030,10 +1030,6 @@
   </si>
   <si>
     <t>비밀을 알아버린 선배</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dialogue ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1073,10 +1069,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>blackscreen.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>달도 구름에 가려진 하늘은 한없이 새까맣다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1094,343 +1086,722 @@
     <t>ID</t>
   </si>
   <si>
-    <t>기본</t>
+    <t xml:space="preserve">빛나는 것만 빼면 평범한 단검. 찌르고 베는데는 문제가 없다. </t>
+  </si>
+  <si>
+    <t>깜빡거리며 반짝이는 날카로운 단검. 스치는 것만으로도 깊게 상처가 날 것 같다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">음울한 회색의 단검. 밤 안개 속에 있는 것처럼 흐린 빛을 내고 있다. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">더 이상 빛나지 않는 단검. 그 대신 칼날만큼은 더욱 흉흉하게 변했다.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">새까맣게 물든 검은 단검. 찔린다면 다신 회복할 수 없는 상처가 남을 것이다. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">귀여운 캐릭터가 그려진 과일맛 껌. 안에는 스티커도 들어있는 듯 하다. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">하트모양 큐빅으로 엮은 팔찌. 아이들 장난감으로도 인기가 많다.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">가로로 쓰는 커다란 머리띠. 귀여운 리본 하나가 중앙에 달려있다. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">조그맣고 귀여운 아기 인형. 나도 모르게 껴안고 싶어진다. </t>
+  </si>
+  <si>
+    <t>보석을 작은 알갱이가 될 때까지 갈아내어 만든 것. 어째서 이런 짓을...?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">윤기가 흐르는 검은 비단. 몸에만 둘러도 아름다운 원피스가 될 것 같다. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">마시면 활력이 돋는 수상한 물약. 에너지 드링크하고 비슷한 맛이 난다. </t>
+  </si>
+  <si>
+    <t>먹구름에서 뜯어낸 것 같은 새까만 솜덩이. 아주 부드럽지만 만지면 손이 까매진다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">별처럼 빛나는 정체 모를 가루. 아주 작은데도 내뿜는 빛은 꽤 강하다. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">달이 떴을 때 맺힌 물방울. 씁쓸하고 아린 맛이 난다. </t>
+  </si>
+  <si>
+    <t>홀로 떨어져있는 조그마한 눈송이. 시간이 지나면 자연스레 사라져 버린다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">주먹 크기의 단단한 광석. 강도가 높아서 여러 용도로 쓸 수 있어 보인다. </t>
+  </si>
+  <si>
+    <t>겨울의 추위에도 아직 따듯함이 남아있는 씨앗. 봄이 온다면 다시 깨어날지도 모른다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">누군가가 버린 작은 인형. 바닥을 굴러다녔는지 먼지로 뒤덮여있어 더럽다. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">꽁꽁 얼어버린 나뭇잎. 약간만 힘을 줘도 바스라지니 주의해서 다뤄야한다. </t>
+  </si>
+  <si>
+    <t>마음을 전하기 위해 적은 누군가의 편지. 전하려던 건 어떤 마음이었을까.</t>
+  </si>
+  <si>
+    <t>나</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>text</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SFX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Date ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unique ID</t>
+  </si>
+  <si>
+    <t>UseItem ID 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UseItem ID 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UseItem ID 3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>u_story_05</t>
+  </si>
+  <si>
+    <t>u_story_05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Info</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>u_story_02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>u_story_03</t>
+  </si>
+  <si>
+    <t>u_story_04</t>
+  </si>
+  <si>
+    <t>u_story_06</t>
+  </si>
+  <si>
+    <t>u_story_07</t>
+  </si>
+  <si>
+    <t>u_story_08</t>
+  </si>
+  <si>
+    <t>u_story_09</t>
+  </si>
+  <si>
+    <t>u_story_10</t>
+  </si>
+  <si>
+    <t>u_story_11</t>
+  </si>
+  <si>
+    <t>u_story_12</t>
+  </si>
+  <si>
+    <t>u_story_13</t>
+  </si>
+  <si>
+    <t>u_story_14</t>
+  </si>
+  <si>
+    <t>u_story_15</t>
+  </si>
+  <si>
+    <t>u_story_16</t>
+  </si>
+  <si>
+    <t>u_story_17</t>
+  </si>
+  <si>
+    <t>u_story_18</t>
+  </si>
+  <si>
+    <t>u_story_19</t>
+  </si>
+  <si>
+    <t>u_story_20</t>
+  </si>
+  <si>
+    <t>u_story_21</t>
+  </si>
+  <si>
+    <t>u_story_22</t>
+  </si>
+  <si>
+    <t>u_story_23</t>
+  </si>
+  <si>
+    <t>u_story_24</t>
+  </si>
+  <si>
+    <t>u_story_25</t>
+  </si>
+  <si>
+    <t>u_story_26</t>
+  </si>
+  <si>
+    <t>Next Unique ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1주차 월요일 오전</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Limit ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>통상</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>진지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>으음…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>당황</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>놀람</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>웃음</t>
-  </si>
-  <si>
-    <t xml:space="preserve">빛나는 것만 빼면 평범한 단검. 찌르고 베는데는 문제가 없다. </t>
-  </si>
-  <si>
-    <t>깜빡거리며 반짝이는 날카로운 단검. 스치는 것만으로도 깊게 상처가 날 것 같다.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">음울한 회색의 단검. 밤 안개 속에 있는 것처럼 흐린 빛을 내고 있다. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">더 이상 빛나지 않는 단검. 그 대신 칼날만큼은 더욱 흉흉하게 변했다.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">새까맣게 물든 검은 단검. 찔린다면 다신 회복할 수 없는 상처가 남을 것이다. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">귀여운 캐릭터가 그려진 과일맛 껌. 안에는 스티커도 들어있는 듯 하다. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">하트모양 큐빅으로 엮은 팔찌. 아이들 장난감으로도 인기가 많다.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">가로로 쓰는 커다란 머리띠. 귀여운 리본 하나가 중앙에 달려있다. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">조그맣고 귀여운 아기 인형. 나도 모르게 껴안고 싶어진다. </t>
-  </si>
-  <si>
-    <t>보석을 작은 알갱이가 될 때까지 갈아내어 만든 것. 어째서 이런 짓을...?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">윤기가 흐르는 검은 비단. 몸에만 둘러도 아름다운 원피스가 될 것 같다. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">마시면 활력이 돋는 수상한 물약. 에너지 드링크하고 비슷한 맛이 난다. </t>
-  </si>
-  <si>
-    <t>먹구름에서 뜯어낸 것 같은 새까만 솜덩이. 아주 부드럽지만 만지면 손이 까매진다.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">별처럼 빛나는 정체 모를 가루. 아주 작은데도 내뿜는 빛은 꽤 강하다. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">달이 떴을 때 맺힌 물방울. 씁쓸하고 아린 맛이 난다. </t>
-  </si>
-  <si>
-    <t>홀로 떨어져있는 조그마한 눈송이. 시간이 지나면 자연스레 사라져 버린다.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">주먹 크기의 단단한 광석. 강도가 높아서 여러 용도로 쓸 수 있어 보인다. </t>
-  </si>
-  <si>
-    <t>겨울의 추위에도 아직 따듯함이 남아있는 씨앗. 봄이 온다면 다시 깨어날지도 모른다.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">누군가가 버린 작은 인형. 바닥을 굴러다녔는지 먼지로 뒤덮여있어 더럽다. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">꽁꽁 얼어버린 나뭇잎. 약간만 힘을 줘도 바스라지니 주의해서 다뤄야한다. </t>
-  </si>
-  <si>
-    <t>마음을 전하기 위해 적은 누군가의 편지. 전하려던 건 어떤 마음이었을까.</t>
-  </si>
-  <si>
-    <t>나</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>놀람</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>진지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dialogue1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>text</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SFX</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Date ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Unique ID</t>
-  </si>
-  <si>
-    <t>UseItem ID 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UseItem ID 2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UseItem ID 3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>u_story_05</t>
-  </si>
-  <si>
-    <t>u_story_05</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>월요일 오전</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>StoryDate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Info</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스토리 시간 개념 ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>월요일 오후</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>월요일 방과후</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>월요일 밤</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>화요일 오전</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>화요일 오후</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>화요일 방과후</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>화요일 밤</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>수요일 오전</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>수요일 오후</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>수요일 방과후</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>수요일 밤</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>목요일 오전</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>목요일 오후</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>목요일 방과후</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>목요일 밤</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>금요일 오전</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>금요일 오후</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>금요일 방과후</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>금요일 밤</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>토요일 오전</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>토요일 오후</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>토요일 방과후</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>토요일 밤</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>일요일 오전</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>일요일 오후</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>일요일 방과후</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>일요일 밤</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>u_story_02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>u_story_03</t>
-  </si>
-  <si>
-    <t>u_story_04</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skill</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>채아람 스킬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한소원 스킬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고은혜 스킬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cahr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>채아람 고유 ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>char expression</t>
+  </si>
+  <si>
+    <t>한소원 고유 ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고은혜 고유 ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>item</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도래솔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도래솔 고유 ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나' 라는 고유 ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>선물 아이템  ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무기 아이템 ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>재료 아이템 ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>물약 아이템 ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>퀘스트 아이템 ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>에픽 아이템 ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">채아람 캐릭터 표정 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시간 개념 고유 ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1주차 월요일 방과후</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1주차 월요일 오후</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1주차 월요일 밤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1주차 화요일 오전</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1주차 화요일 오후</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1주차 화요일 방과후</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1주차 화요일 밤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1주차 수요일 오전</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1주차 수요일 오후</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1주차 수요일 방과후</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1주차 수요일 밤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1주차 목요일 오전</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1주차 목요일 오후</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1주차 목요일 방과후</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1주차 목요일 밤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1주차 금요일 오전</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1주차 금요일 오후</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1주차 금요일 방과후</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1주차 금요일 밤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1주차 토요일 오전</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1주차 토요일 오후</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1주차 토요일 방과후</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1주차 토요일 밤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1주차 일요일 오전</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1주차 일요일 오후</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1주차 일요일 방과후</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1주차 일요일 밤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2주차 월요일 오전</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2주차 월요일 오후</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2주차 월요일 방과후</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2주차 월요일 밤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2주차 화요일 오전</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2주차 화요일 오후</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2주차 화요일 방과후</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2주차 화요일 밤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2주차 수요일 오전</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2주차 수요일 오후</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2주차 수요일 방과후</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2주차 수요일 밤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2주차 목요일 오전</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2주차 목요일 오후</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2주차 목요일 방과후</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2주차 목요일 밤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2주차 금요일 오전</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2주차 금요일 오후</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2주차 금요일 방과후</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2주차 금요일 밤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2주차 토요일 오전</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2주차 토요일 오후</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2주차 토요일 방과후</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2주차 토요일 밤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2주차 일요일 오전</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2주차 일요일 오후</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2주차 일요일 방과후</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2주차 일요일 밤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3주차 월요일 오전</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3주차 월요일 오후</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3주차 월요일 방과후</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3주차 월요일 밤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3주차 화요일 오전</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3주차 화요일 오후</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3주차 화요일 방과후</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3주차 화요일 밤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3주차 수요일 오전</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3주차 수요일 오후</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3주차 수요일 방과후</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3주차 수요일 밤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3주차 목요일 오전</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3주차 목요일 오후</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3주차 목요일 방과후</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3주차 목요일 밤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3주차 금요일 오전</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3주차 금요일 오후</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3주차 금요일 방과후</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3주차 금요일 밤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Char ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>u_story_06</t>
-  </si>
-  <si>
-    <t>u_story_07</t>
-  </si>
-  <si>
-    <t>u_story_08</t>
-  </si>
-  <si>
-    <t>u_story_09</t>
-  </si>
-  <si>
-    <t>u_story_10</t>
-  </si>
-  <si>
-    <t>u_story_11</t>
-  </si>
-  <si>
-    <t>u_story_12</t>
-  </si>
-  <si>
-    <t>u_story_13</t>
-  </si>
-  <si>
-    <t>u_story_14</t>
-  </si>
-  <si>
-    <t>u_story_15</t>
-  </si>
-  <si>
-    <t>u_story_16</t>
-  </si>
-  <si>
-    <t>u_story_17</t>
-  </si>
-  <si>
-    <t>u_story_18</t>
-  </si>
-  <si>
-    <t>u_story_19</t>
-  </si>
-  <si>
-    <t>u_story_20</t>
-  </si>
-  <si>
-    <t>u_story_21</t>
-  </si>
-  <si>
-    <t>u_story_22</t>
-  </si>
-  <si>
-    <t>u_story_23</t>
-  </si>
-  <si>
-    <t>u_story_24</t>
-  </si>
-  <si>
-    <t>u_story_25</t>
-  </si>
-  <si>
-    <t>u_story_26</t>
-  </si>
-  <si>
-    <t>Next Unique ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1주차 월요일 오전</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Time</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Limit ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>“…으윽.”</t>
+  </si>
+  <si>
+    <t>잡생각을 멈추고 몸을 일으켰다. 바닥이 딱딱한 곳에서 오래 잔 나머지 등이 살짝 배겼다.</t>
+  </si>
+  <si>
+    <t>바닥이 더 푹신하면 좋았겠지만, 멋대로 학교 옥상에서 자면서 불평할 수도 없는 노릇이다.</t>
+  </si>
+  <si>
+    <t>가림막 하나 없는 옥상에 쌀쌀한 가을바람이 불었다. 조금 있으면 겨울이라 그런지 바람에 냉기가 느껴진다.</t>
+  </si>
+  <si>
+    <t>“슬슬 내려가야겠다.”</t>
+  </si>
+  <si>
+    <t>가방을 챙겨 옥상 문을 열고 내려가, 물탱크 사이로 몸을 비집어 넣었다.</t>
+  </si>
+  <si>
+    <t>이 학교에 전학을 오고 1년이지났지만, 유일하게 마음에 든 곳이 여기 옥상이다.</t>
+  </si>
+  <si>
+    <t>옥상문을 물탱크 두 개가 가리고 있어서, 다른 사람들은 옥상으로 가는 길이 없는 줄 알고 있다.</t>
+  </si>
+  <si>
+    <t>사실 그 뒤는 잠기지도 않은 문이 있는데.</t>
+  </si>
+  <si>
+    <t>뭐, 덕분에 내가 전세 내고 잘 쓰고 있다.</t>
+  </si>
+  <si>
+    <t>다른 누구 하나도 없는 나 혼자만의 공간.</t>
+  </si>
+  <si>
+    <t>괜히 반 애들 눈치 안 봐도 되고, 쉬는 시간에 자는 척하면서 시간 보내지 않아도 돼서 최고다.</t>
+  </si>
+  <si>
+    <t>“끄으응….”</t>
+  </si>
+  <si>
+    <t>들어갔다 나오는 게 고생인 것만 빼면.</t>
+  </si>
+  <si>
+    <t>얼굴을 물탱크에 비비며 사이를 빠져나와 조심히 주위를 살폈다.</t>
+  </si>
+  <si>
+    <t>괜히 다른 사람, 특히 선생님이라도 만났다간 골치 아프니까 서둘러야지.</t>
+  </si>
+  <si>
+    <t>조심조심. 발소리도 내지 않고, 아주 조용히 계단을 내려가다가.</t>
+  </si>
+  <si>
+    <t>“어?”</t>
+  </si>
+  <si>
+    <t>BGM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>처음 보는 여자애와 마주쳤다.</t>
+  </si>
+  <si>
+    <t>올라가던 여자애와 내려가던 나. 마치 외나무다리에서 만난 것처럼 우리 둘 다 걸음을 우뚝 멈췄다.</t>
+  </si>
+  <si>
+    <t>여자애도 나도. 서로 눈동자로 묻고 있다.</t>
+  </si>
+  <si>
+    <t>‘이 사람. 밤에 학교에서 뭐하는 거야…?’</t>
+  </si>
+  <si>
+    <t>잔머리가 번뜩이는 대답을 내놨다. 이거면 된다!</t>
+  </si>
+  <si>
+    <t>뭐, 뭐라고 해야 하지!?</t>
+  </si>
+  <si>
+    <t>옥상에 갔다 왔단 걸 들키면 나만의 공간이 사라지는데!? 좋은 변명 없나!?</t>
+  </si>
+  <si>
+    <t>“그, 학교에 뭘 두고 와서요.”</t>
+  </si>
+  <si>
+    <t>“아하하. 제가 학교에 뭘 두고 와서요.”</t>
+  </si>
+  <si>
+    <t>“.......”</t>
+  </si>
+  <si>
+    <t>찜찜한 침묵이 계단에 내려앉았다.</t>
+  </si>
+  <si>
+    <t>두 명 모두, 밤늦게 학교에 있을 만한 가장 그럴싸한 이유를 말했는데. 둘 다 ‘거짓말이구나’ 같은 표정을 짓는 건 왜일까.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1467,6 +1838,11 @@
       <family val="3"/>
       <charset val="129"/>
       <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1571,7 +1947,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1629,12 +2005,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1653,6 +2031,13 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1973,7 +2358,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B17" sqref="B17:C22"/>
+      <selection pane="bottomLeft" activeCell="G77" sqref="G77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2165,7 +2550,7 @@
         <v>1</v>
       </c>
       <c r="AC2" s="5" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
     </row>
     <row r="3" spans="1:29">
@@ -2228,7 +2613,7 @@
       <c r="AA3" s="5"/>
       <c r="AB3" s="10"/>
       <c r="AC3" s="5" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -2291,7 +2676,7 @@
       <c r="AA4" s="5"/>
       <c r="AB4" s="10"/>
       <c r="AC4" s="5" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -2354,7 +2739,7 @@
       <c r="AA5" s="5"/>
       <c r="AB5" s="10"/>
       <c r="AC5" s="5" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -2417,7 +2802,7 @@
       <c r="AA6" s="5"/>
       <c r="AB6" s="10"/>
       <c r="AC6" s="5" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -3102,7 +3487,7 @@
       <c r="AA17" s="5"/>
       <c r="AB17" s="10"/>
       <c r="AC17" s="5" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
     </row>
     <row r="18" spans="1:29">
@@ -3157,7 +3542,7 @@
       <c r="AA18" s="5"/>
       <c r="AB18" s="5"/>
       <c r="AC18" s="5" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
     </row>
     <row r="19" spans="1:29">
@@ -3212,7 +3597,7 @@
       <c r="AA19" s="5"/>
       <c r="AB19" s="5"/>
       <c r="AC19" s="5" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
     </row>
     <row r="20" spans="1:29">
@@ -3267,7 +3652,7 @@
       <c r="AA20" s="5"/>
       <c r="AB20" s="5"/>
       <c r="AC20" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="21" spans="1:29">
@@ -3322,7 +3707,7 @@
       <c r="AA21" s="5"/>
       <c r="AB21" s="5"/>
       <c r="AC21" s="5" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
     </row>
     <row r="22" spans="1:29">
@@ -3377,7 +3762,7 @@
       <c r="AA22" s="5"/>
       <c r="AB22" s="5"/>
       <c r="AC22" s="5" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
     </row>
     <row r="23" spans="1:29">
@@ -3909,7 +4294,7 @@
       <c r="AA32" s="5"/>
       <c r="AB32" s="5"/>
       <c r="AC32" s="5" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
     </row>
     <row r="33" spans="1:29">
@@ -4123,7 +4508,7 @@
       <c r="AA36" s="5"/>
       <c r="AB36" s="5"/>
       <c r="AC36" s="5" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
     </row>
     <row r="37" spans="1:29">
@@ -4178,7 +4563,7 @@
       <c r="AA37" s="5"/>
       <c r="AB37" s="5"/>
       <c r="AC37" s="5" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
     </row>
     <row r="38" spans="1:29">
@@ -4233,7 +4618,7 @@
       <c r="AA38" s="5"/>
       <c r="AB38" s="5"/>
       <c r="AC38" s="5" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
     </row>
     <row r="39" spans="1:29">
@@ -4288,7 +4673,7 @@
       <c r="AA39" s="5"/>
       <c r="AB39" s="5"/>
       <c r="AC39" s="5" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
     </row>
     <row r="40" spans="1:29">
@@ -4343,7 +4728,7 @@
       <c r="AA40" s="5"/>
       <c r="AB40" s="5"/>
       <c r="AC40" s="5" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
     </row>
     <row r="41" spans="1:29">
@@ -4398,7 +4783,7 @@
       <c r="AA41" s="5"/>
       <c r="AB41" s="5"/>
       <c r="AC41" s="5" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
     </row>
     <row r="42" spans="1:29">
@@ -4453,7 +4838,7 @@
       <c r="AA42" s="5"/>
       <c r="AB42" s="5"/>
       <c r="AC42" s="5" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
     </row>
     <row r="43" spans="1:29">
@@ -4508,7 +4893,7 @@
       <c r="AA43" s="5"/>
       <c r="AB43" s="5"/>
       <c r="AC43" s="5" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
     </row>
     <row r="44" spans="1:29">
@@ -4563,7 +4948,7 @@
       <c r="AA44" s="5"/>
       <c r="AB44" s="5"/>
       <c r="AC44" s="5" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
     </row>
     <row r="45" spans="1:29">
@@ -6008,7 +6393,7 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -6023,22 +6408,22 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="C1" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="D1" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="E1" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="F1" t="s">
-        <v>359</v>
+        <v>322</v>
       </c>
       <c r="G1" t="s">
-        <v>361</v>
+        <v>324</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -6046,7 +6431,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="C2">
         <v>2001</v>
@@ -6056,6 +6441,12 @@
       </c>
       <c r="E2">
         <v>2003</v>
+      </c>
+      <c r="F2" t="s">
+        <v>431</v>
+      </c>
+      <c r="G2">
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -6073,13 +6464,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F328B73-B520-48AB-8647-D2A4375569D3}">
   <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="2" max="2" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -6087,13 +6480,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C1" t="s">
-        <v>297</v>
-      </c>
-      <c r="D1" s="21" t="s">
-        <v>362</v>
+        <v>290</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>325</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -6101,21 +6494,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>260</v>
-      </c>
-      <c r="C2">
-        <v>10</v>
-      </c>
+        <v>259</v>
+      </c>
+      <c r="C2" s="18"/>
     </row>
     <row r="3" spans="1:4">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>260</v>
-      </c>
-      <c r="C3">
-        <v>10</v>
+        <v>259</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -6123,10 +6511,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>260</v>
-      </c>
-      <c r="C4">
-        <v>10</v>
+        <v>259</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -6134,10 +6519,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>335</v>
-      </c>
-      <c r="C5">
-        <v>11</v>
+        <v>298</v>
+      </c>
+      <c r="C5" s="18">
+        <v>10233</v>
+      </c>
+      <c r="D5" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -6145,10 +6533,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>336</v>
-      </c>
-      <c r="C6">
-        <v>11</v>
+        <v>299</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -6156,10 +6541,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>337</v>
-      </c>
-      <c r="C7">
-        <v>12</v>
+        <v>300</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -6167,10 +6549,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>302</v>
-      </c>
-      <c r="C8">
-        <v>13</v>
+        <v>295</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -6178,10 +6557,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>338</v>
-      </c>
-      <c r="C9">
-        <v>13</v>
+        <v>301</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -6189,10 +6565,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>339</v>
-      </c>
-      <c r="C10">
-        <v>13</v>
+        <v>302</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -6200,10 +6573,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>340</v>
-      </c>
-      <c r="C11">
-        <v>13</v>
+        <v>303</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -6211,10 +6581,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>341</v>
-      </c>
-      <c r="C12">
-        <v>13</v>
+        <v>304</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -6222,10 +6589,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>342</v>
-      </c>
-      <c r="C13">
-        <v>13</v>
+        <v>305</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -6233,10 +6597,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>343</v>
-      </c>
-      <c r="C14">
-        <v>13</v>
+        <v>306</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -6244,10 +6605,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>344</v>
-      </c>
-      <c r="C15">
-        <v>12</v>
+        <v>307</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -6255,153 +6613,111 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>345</v>
-      </c>
-      <c r="C16">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>346</v>
-      </c>
-      <c r="C17">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>347</v>
-      </c>
-      <c r="C18">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>348</v>
-      </c>
-      <c r="C19">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>349</v>
-      </c>
-      <c r="C20">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>350</v>
-      </c>
-      <c r="C21">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>351</v>
-      </c>
-      <c r="C22">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>352</v>
-      </c>
-      <c r="C23">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>353</v>
-      </c>
-      <c r="C24">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>354</v>
-      </c>
-      <c r="C25">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>355</v>
-      </c>
-      <c r="C26">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>356</v>
-      </c>
-      <c r="C27">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>357</v>
-      </c>
-      <c r="C28">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>358</v>
-      </c>
-      <c r="C29">
-        <v>12</v>
+        <v>321</v>
       </c>
     </row>
   </sheetData>
@@ -6412,794 +6728,2839 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F3ED1EE-E2C0-4490-B5C0-DC75BE69A3AF}">
-  <dimension ref="A1:E102"/>
+  <dimension ref="A1:E161"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="C106" sqref="C106"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B124" sqref="B124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="3" max="3" width="17.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" t="s">
+      <c r="A1" s="21" t="s">
         <v>148</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="C1" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="E1" t="s">
-        <v>306</v>
+      <c r="E1" s="21" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="2" spans="1:5">
+      <c r="A2" s="5">
+        <v>0</v>
+      </c>
       <c r="B2" s="5">
         <v>1</v>
       </c>
+      <c r="C2" s="5" t="str">
+        <f>LOOKUP(ID!B2,skill!C2,skill!B2)</f>
+        <v>넘치는 에너지</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>333</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>334</v>
+      </c>
     </row>
     <row r="3" spans="1:5">
+      <c r="A3" s="5">
+        <v>1</v>
+      </c>
       <c r="B3" s="5">
         <v>2</v>
       </c>
+      <c r="C3" s="5" t="str">
+        <f>LOOKUP(ID!B3,skill!C3,skill!B3)</f>
+        <v>조심스러움</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>333</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>335</v>
+      </c>
     </row>
     <row r="4" spans="1:5">
+      <c r="A4" s="5">
+        <v>2</v>
+      </c>
       <c r="B4" s="5">
         <v>3</v>
       </c>
+      <c r="C4" s="5" t="str">
+        <f>LOOKUP(ID!B4,skill!C4,skill!B4)</f>
+        <v>담력</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>333</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>336</v>
+      </c>
     </row>
     <row r="5" spans="1:5">
+      <c r="A5" s="5">
+        <v>3</v>
+      </c>
       <c r="B5" s="5">
+        <v>100</v>
+      </c>
+      <c r="C5" s="5" t="str">
+        <f>LOOKUP(B5,char!C2,char!B2)</f>
+        <v>채아람</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>337</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="5">
+        <v>4</v>
+      </c>
+      <c r="B6" s="5">
+        <v>200</v>
+      </c>
+      <c r="C6" s="5" t="str">
+        <f>LOOKUP(B6,char!C3,char!B3)</f>
+        <v>한소원</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>337</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="5">
+        <v>5</v>
+      </c>
+      <c r="B7" s="5">
+        <v>300</v>
+      </c>
+      <c r="C7" s="5" t="str">
+        <f>LOOKUP(B7,char!C4,char!B4)</f>
+        <v>고은혜</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>337</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="5">
+        <v>6</v>
+      </c>
+      <c r="B8" s="5">
+        <v>400</v>
+      </c>
+      <c r="C8" s="5" t="str">
+        <f>LOOKUP(B8,char!C5,char!B5)</f>
+        <v>도래솔</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>337</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="5">
+        <v>7</v>
+      </c>
+      <c r="B9" s="5">
+        <v>500</v>
+      </c>
+      <c r="C9" s="5" t="str">
+        <f>LOOKUP(B9,char!C6,char!B6)</f>
+        <v>나</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>337</v>
+      </c>
+      <c r="E9" s="28" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="5">
+        <v>8</v>
+      </c>
+      <c r="B10" s="5">
+        <v>101</v>
+      </c>
+      <c r="C10" s="5" t="str">
+        <f>LOOKUP(B10,'char expression'!D2,'char expression'!C2)</f>
+        <v>통상</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="5">
+        <v>9</v>
+      </c>
+      <c r="B11" s="5">
+        <v>102</v>
+      </c>
+      <c r="C11" s="5" t="str">
+        <f>LOOKUP(B11,'char expression'!D3,'char expression'!C3)</f>
+        <v>진지</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="5">
         <v>10</v>
       </c>
-      <c r="C5" t="s">
-        <v>304</v>
-      </c>
-      <c r="D5" t="s">
-        <v>305</v>
-      </c>
-      <c r="E5" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="B6" s="5">
+      <c r="B12" s="5">
+        <v>103</v>
+      </c>
+      <c r="C12" s="5" t="str">
+        <f>LOOKUP(B12,'char expression'!D4,'char expression'!C4)</f>
+        <v>으음…</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="5">
         <v>11</v>
       </c>
-      <c r="C6" t="s">
-        <v>308</v>
-      </c>
-      <c r="D6" t="s">
-        <v>305</v>
-      </c>
-      <c r="E6" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="B7" s="5">
+      <c r="B13" s="5">
+        <v>104</v>
+      </c>
+      <c r="C13" s="5" t="str">
+        <f>LOOKUP(B13,'char expression'!D5,'char expression'!C5)</f>
+        <v>당황</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="5">
         <v>12</v>
       </c>
-      <c r="C7" t="s">
-        <v>309</v>
-      </c>
-      <c r="D7" t="s">
-        <v>305</v>
-      </c>
-      <c r="E7" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="B8" s="5">
+      <c r="B14" s="5">
+        <v>105</v>
+      </c>
+      <c r="C14" s="5" t="str">
+        <f>LOOKUP(B14,'char expression'!D6,'char expression'!C6)</f>
+        <v>놀람</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="5">
         <v>13</v>
       </c>
-      <c r="C8" t="s">
-        <v>310</v>
-      </c>
-      <c r="D8" t="s">
-        <v>305</v>
-      </c>
-      <c r="E8" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="B9" s="5">
+      <c r="B15" s="5">
+        <v>106</v>
+      </c>
+      <c r="C15" s="5" t="str">
+        <f>LOOKUP(B15,'char expression'!D7,'char expression'!C7)</f>
+        <v>미소</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="5">
         <v>14</v>
       </c>
-      <c r="C9" t="s">
-        <v>311</v>
-      </c>
-      <c r="D9" t="s">
-        <v>305</v>
-      </c>
-      <c r="E9" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="B10" s="5">
+      <c r="B16" s="5">
+        <v>107</v>
+      </c>
+      <c r="C16" s="5" t="str">
+        <f>LOOKUP(B16,'char expression'!D8,'char expression'!C8)</f>
+        <v>웃음</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="5">
         <v>15</v>
       </c>
-      <c r="C10" t="s">
-        <v>312</v>
-      </c>
-      <c r="D10" t="s">
-        <v>305</v>
-      </c>
-      <c r="E10" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="B11" s="5">
+      <c r="B17" s="5">
+        <v>1001</v>
+      </c>
+      <c r="C17" s="18" t="str">
+        <f>LOOKUP(B17,ITEM!C2,ITEM!B2)</f>
+        <v>투박한 단검</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="5">
         <v>16</v>
       </c>
-      <c r="C11" t="s">
-        <v>313</v>
-      </c>
-      <c r="D11" t="s">
-        <v>305</v>
-      </c>
-      <c r="E11" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="B12" s="5">
+      <c r="B18" s="5">
+        <v>1002</v>
+      </c>
+      <c r="C18" s="18" t="str">
+        <f>LOOKUP(B18,ITEM!C3,ITEM!B3)</f>
+        <v>날카로운 단검</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="5">
         <v>17</v>
       </c>
-      <c r="C12" t="s">
-        <v>314</v>
-      </c>
-      <c r="D12" t="s">
-        <v>305</v>
-      </c>
-      <c r="E12" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="B13" s="5">
+      <c r="B19" s="5">
+        <v>1003</v>
+      </c>
+      <c r="C19" s="18" t="str">
+        <f>LOOKUP(B19,ITEM!C4,ITEM!B4)</f>
+        <v>회색빛 단검</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="5">
         <v>18</v>
       </c>
-      <c r="C13" t="s">
-        <v>315</v>
-      </c>
-      <c r="D13" t="s">
-        <v>305</v>
-      </c>
-      <c r="E13" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="B14" s="5">
+      <c r="B20" s="5">
+        <v>1004</v>
+      </c>
+      <c r="C20" s="18" t="str">
+        <f>LOOKUP(B20,ITEM!C5,ITEM!B5)</f>
+        <v>빛없는 단검</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="5">
         <v>19</v>
       </c>
-      <c r="C14" t="s">
-        <v>316</v>
-      </c>
-      <c r="D14" t="s">
-        <v>305</v>
-      </c>
-      <c r="E14" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="B15" s="5">
+      <c r="B21" s="5">
+        <v>1005</v>
+      </c>
+      <c r="C21" s="18" t="str">
+        <f>LOOKUP(B21,ITEM!C6,ITEM!B6)</f>
+        <v>우울한 무희</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="5">
         <v>20</v>
       </c>
-      <c r="C15" t="s">
-        <v>317</v>
-      </c>
-      <c r="D15" t="s">
-        <v>305</v>
-      </c>
-      <c r="E15" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="B16" s="5">
+      <c r="B22" s="5">
+        <v>1006</v>
+      </c>
+      <c r="C22" s="18" t="str">
+        <f>LOOKUP(B22,ITEM!C7,ITEM!B7)</f>
+        <v>강철 카드</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="5">
         <v>21</v>
       </c>
-      <c r="C16" t="s">
-        <v>318</v>
-      </c>
-      <c r="D16" t="s">
-        <v>305</v>
-      </c>
-      <c r="E16" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5">
-      <c r="B17" s="5">
+      <c r="B23" s="5">
+        <v>1007</v>
+      </c>
+      <c r="C23" s="18" t="str">
+        <f>LOOKUP(B23,ITEM!C8,ITEM!B8)</f>
+        <v>흑요석 카드</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="5">
         <v>22</v>
       </c>
-      <c r="C17" t="s">
-        <v>319</v>
-      </c>
-      <c r="D17" t="s">
-        <v>305</v>
-      </c>
-      <c r="E17" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5">
-      <c r="B18" s="5">
+      <c r="B24" s="5">
+        <v>1008</v>
+      </c>
+      <c r="C24" s="18" t="str">
+        <f>LOOKUP(B24,ITEM!C9,ITEM!B9)</f>
+        <v>빛의 카드</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="5">
         <v>23</v>
       </c>
-      <c r="C18" t="s">
-        <v>320</v>
-      </c>
-      <c r="D18" t="s">
-        <v>305</v>
-      </c>
-      <c r="E18" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5">
-      <c r="B19" s="5">
+      <c r="B25" s="5">
+        <v>1009</v>
+      </c>
+      <c r="C25" s="18" t="str">
+        <f>LOOKUP(B25,ITEM!C10,ITEM!B10)</f>
+        <v>금강옥 카드</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="5">
         <v>24</v>
       </c>
-      <c r="C19" t="s">
-        <v>321</v>
-      </c>
-      <c r="D19" t="s">
-        <v>305</v>
-      </c>
-      <c r="E19" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5">
-      <c r="B20" s="5">
+      <c r="B26" s="5">
+        <v>1010</v>
+      </c>
+      <c r="C26" s="18" t="str">
+        <f>LOOKUP(B26,ITEM!C11,ITEM!B11)</f>
+        <v>자신감의 카드</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="5">
         <v>25</v>
       </c>
-      <c r="C20" t="s">
-        <v>322</v>
-      </c>
-      <c r="D20" t="s">
-        <v>305</v>
-      </c>
-      <c r="E20" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5">
-      <c r="B21" s="5">
+      <c r="B27" s="5">
+        <v>1011</v>
+      </c>
+      <c r="C27" s="18" t="str">
+        <f>LOOKUP(B27,ITEM!C12,ITEM!B12)</f>
+        <v>강철 검</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="5">
         <v>26</v>
       </c>
-      <c r="C21" t="s">
+      <c r="B28" s="5">
+        <v>1012</v>
+      </c>
+      <c r="C28" s="18" t="str">
+        <f>LOOKUP(B28,ITEM!C13,ITEM!B13)</f>
+        <v>흑요석 검</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="5">
+        <v>27</v>
+      </c>
+      <c r="B29" s="5">
+        <v>1013</v>
+      </c>
+      <c r="C29" s="18" t="str">
+        <f>LOOKUP(B29,ITEM!C14,ITEM!B14)</f>
+        <v>암흑 검</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="5">
+        <v>28</v>
+      </c>
+      <c r="B30" s="5">
+        <v>1014</v>
+      </c>
+      <c r="C30" s="18" t="str">
+        <f>LOOKUP(B30,ITEM!C15,ITEM!B15)</f>
+        <v>금강옥 검</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="5">
+        <v>29</v>
+      </c>
+      <c r="B31" s="5">
+        <v>1015</v>
+      </c>
+      <c r="C31" s="18" t="str">
+        <f>LOOKUP(B31,ITEM!C16,ITEM!B16)</f>
+        <v>가족의 검</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="5">
+        <v>30</v>
+      </c>
+      <c r="B32" s="5">
+        <v>2001</v>
+      </c>
+      <c r="C32" s="18" t="str">
+        <f>LOOKUP(B32,ITEM!C17,ITEM!B17)</f>
+        <v>캐릭터 껌</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="5">
+        <v>31</v>
+      </c>
+      <c r="B33" s="5">
+        <v>2002</v>
+      </c>
+      <c r="C33" s="18" t="str">
+        <f>LOOKUP(B33,ITEM!C18,ITEM!B18)</f>
+        <v>큐빅 팔찌</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="5">
+        <v>32</v>
+      </c>
+      <c r="B34" s="5">
+        <v>2003</v>
+      </c>
+      <c r="C34" s="18" t="str">
+        <f>LOOKUP(B34,ITEM!C19,ITEM!B19)</f>
+        <v>머리띠</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="5">
+        <v>33</v>
+      </c>
+      <c r="B35" s="5">
+        <v>2004</v>
+      </c>
+      <c r="C35" s="18" t="str">
+        <f>LOOKUP(B35,ITEM!C20,ITEM!B20)</f>
+        <v>소꿉놀이 인형</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="5">
+        <v>34</v>
+      </c>
+      <c r="B36" s="5">
+        <v>2005</v>
+      </c>
+      <c r="C36" s="18" t="str">
+        <f>LOOKUP(B36,ITEM!C21,ITEM!B21)</f>
+        <v>보석 가루</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="5">
+        <v>35</v>
+      </c>
+      <c r="B37" s="5">
+        <v>2006</v>
+      </c>
+      <c r="C37" s="18" t="str">
+        <f>LOOKUP(B37,ITEM!C22,ITEM!B22)</f>
+        <v>흑색 비단</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="5">
+        <v>36</v>
+      </c>
+      <c r="B38" s="5">
+        <v>2007</v>
+      </c>
+      <c r="C38" s="18" t="str">
+        <f>LOOKUP(B38,ITEM!C23,ITEM!B23)</f>
+        <v>test1</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="5">
+        <v>37</v>
+      </c>
+      <c r="B39" s="5">
+        <v>2008</v>
+      </c>
+      <c r="C39" s="18" t="str">
+        <f>LOOKUP(B39,ITEM!C24,ITEM!B24)</f>
+        <v>test2</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="5">
+        <v>38</v>
+      </c>
+      <c r="B40" s="5">
+        <v>2009</v>
+      </c>
+      <c r="C40" s="18" t="str">
+        <f>LOOKUP(B40,ITEM!C25,ITEM!B25)</f>
+        <v>test3</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="5">
+        <v>39</v>
+      </c>
+      <c r="B41" s="5">
+        <v>2010</v>
+      </c>
+      <c r="C41" s="18" t="str">
+        <f>LOOKUP(B41,ITEM!C26,ITEM!B26)</f>
+        <v>test4</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="5">
+        <v>40</v>
+      </c>
+      <c r="B42" s="5">
+        <v>2011</v>
+      </c>
+      <c r="C42" s="18" t="str">
+        <f>LOOKUP(B42,ITEM!C27,ITEM!B27)</f>
+        <v>test5</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="5">
+        <v>41</v>
+      </c>
+      <c r="B43" s="5">
+        <v>2012</v>
+      </c>
+      <c r="C43" s="18" t="str">
+        <f>LOOKUP(B43,ITEM!C28,ITEM!B28)</f>
+        <v>test6</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="5">
+        <v>42</v>
+      </c>
+      <c r="B44" s="5">
+        <v>2013</v>
+      </c>
+      <c r="C44" s="18" t="str">
+        <f>LOOKUP(B44,ITEM!C29,ITEM!B29)</f>
+        <v>test7</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="5">
+        <v>43</v>
+      </c>
+      <c r="B45" s="5">
+        <v>2014</v>
+      </c>
+      <c r="C45" s="18" t="str">
+        <f>LOOKUP(B45,ITEM!C30,ITEM!B30)</f>
+        <v>test8</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="5">
+        <v>44</v>
+      </c>
+      <c r="B46" s="5">
+        <v>2015</v>
+      </c>
+      <c r="C46" s="18" t="str">
+        <f>LOOKUP(B46,ITEM!C31,ITEM!B31)</f>
+        <v>test9</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="5">
+        <v>45</v>
+      </c>
+      <c r="B47" s="5">
+        <v>3001</v>
+      </c>
+      <c r="C47" s="5" t="str">
+        <f>LOOKUP(ID!B47,ITEM!C32,ITEM!B32)</f>
+        <v>활력의 물약</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="5">
+        <v>46</v>
+      </c>
+      <c r="B48" s="5">
+        <v>3002</v>
+      </c>
+      <c r="C48" s="5" t="str">
+        <f>LOOKUP(ID!B48,ITEM!C33,ITEM!B33)</f>
+        <v>강화의 물약</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="5">
+        <v>47</v>
+      </c>
+      <c r="B49" s="5">
+        <v>3003</v>
+      </c>
+      <c r="C49" s="5" t="str">
+        <f>LOOKUP(ID!B49,ITEM!C34,ITEM!B34)</f>
+        <v>행운의 물약</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="E49" s="5" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="5">
+        <v>48</v>
+      </c>
+      <c r="B50" s="5">
+        <v>3004</v>
+      </c>
+      <c r="C50" s="5" t="str">
+        <f>LOOKUP(ID!B50,ITEM!C35,ITEM!B35)</f>
+        <v>채집의 물약</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="E50" s="5" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="5">
+        <v>49</v>
+      </c>
+      <c r="B51" s="5">
+        <v>4001</v>
+      </c>
+      <c r="C51" s="5" t="str">
+        <f>LOOKUP(ID!B51,ITEM!C36,ITEM!B36)</f>
+        <v>검은 솜구름</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="E51" s="5" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" s="5">
+        <v>50</v>
+      </c>
+      <c r="B52" s="5">
+        <v>4002</v>
+      </c>
+      <c r="C52" s="5" t="str">
+        <f>LOOKUP(ID!B52,ITEM!C37,ITEM!B37)</f>
+        <v>별빛 가루</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="E52" s="5" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="5">
+        <v>51</v>
+      </c>
+      <c r="B53" s="5">
+        <v>4003</v>
+      </c>
+      <c r="C53" s="5" t="str">
+        <f>LOOKUP(ID!B53,ITEM!C38,ITEM!B38)</f>
+        <v>밤 이슬</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="E53" s="5" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="5">
+        <v>52</v>
+      </c>
+      <c r="B54" s="5">
+        <v>4004</v>
+      </c>
+      <c r="C54" s="5" t="str">
+        <f>LOOKUP(ID!B54,ITEM!C39,ITEM!B39)</f>
+        <v>작은 눈송이</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="E54" s="5" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" s="5">
+        <v>53</v>
+      </c>
+      <c r="B55" s="5">
+        <v>4005</v>
+      </c>
+      <c r="C55" s="5" t="str">
+        <f>LOOKUP(ID!B55,ITEM!C40,ITEM!B40)</f>
+        <v>금이 간 광석</v>
+      </c>
+      <c r="D55" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="E55" s="5" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" s="5">
+        <v>54</v>
+      </c>
+      <c r="B56" s="5">
+        <v>4006</v>
+      </c>
+      <c r="C56" s="5" t="str">
+        <f>LOOKUP(ID!B56,ITEM!C41,ITEM!B41)</f>
+        <v>온기 어린 씨앗</v>
+      </c>
+      <c r="D56" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="E56" s="5" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" s="5">
+        <v>55</v>
+      </c>
+      <c r="B57" s="5">
+        <v>4007</v>
+      </c>
+      <c r="C57" s="5" t="str">
+        <f>LOOKUP(ID!B57,ITEM!C42,ITEM!B42)</f>
+        <v>버려진 인형</v>
+      </c>
+      <c r="D57" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="E57" s="5" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" s="5">
+        <v>56</v>
+      </c>
+      <c r="B58" s="5">
+        <v>4008</v>
+      </c>
+      <c r="C58" s="5" t="str">
+        <f>LOOKUP(ID!B58,ITEM!C43,ITEM!B43)</f>
+        <v>얼어붙은 낙엽</v>
+      </c>
+      <c r="D58" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="E58" s="5" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" s="5">
+        <v>57</v>
+      </c>
+      <c r="B59" s="5">
+        <v>4009</v>
+      </c>
+      <c r="C59" s="5" t="str">
+        <f>LOOKUP(ID!B59,ITEM!C44,ITEM!B44)</f>
+        <v>오래된 책</v>
+      </c>
+      <c r="D59" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="E59" s="5" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" s="5">
+        <v>58</v>
+      </c>
+      <c r="B60" s="5">
+        <v>4010</v>
+      </c>
+      <c r="C60" s="5" t="str">
+        <f>LOOKUP(ID!B60,ITEM!C45,ITEM!B45)</f>
+        <v>물의 기운</v>
+      </c>
+      <c r="D60" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="E60" s="5" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" s="5">
+        <v>59</v>
+      </c>
+      <c r="B61" s="5">
+        <v>4011</v>
+      </c>
+      <c r="C61" s="5" t="str">
+        <f>LOOKUP(ID!B61,ITEM!C46,ITEM!B46)</f>
+        <v>나무의 원석</v>
+      </c>
+      <c r="D61" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="E61" s="5" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" s="5">
+        <v>60</v>
+      </c>
+      <c r="B62" s="5">
+        <v>4012</v>
+      </c>
+      <c r="C62" s="5" t="str">
+        <f>LOOKUP(ID!B62,ITEM!C47,ITEM!B47)</f>
+        <v>고목나무의 수액</v>
+      </c>
+      <c r="D62" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="E62" s="5" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" s="5">
+        <v>61</v>
+      </c>
+      <c r="B63" s="5">
+        <v>4013</v>
+      </c>
+      <c r="C63" s="5" t="str">
+        <f>LOOKUP(ID!B63,ITEM!C48,ITEM!B48)</f>
+        <v>현자의 나뭇가지</v>
+      </c>
+      <c r="D63" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="E63" s="5" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" s="5">
+        <v>62</v>
+      </c>
+      <c r="B64" s="5">
+        <v>4014</v>
+      </c>
+      <c r="C64" s="5" t="str">
+        <f>LOOKUP(ID!B64,ITEM!C49,ITEM!B49)</f>
+        <v>기적의 씨앗</v>
+      </c>
+      <c r="D64" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="E64" s="5" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" s="5">
+        <v>63</v>
+      </c>
+      <c r="B65" s="5">
+        <v>4015</v>
+      </c>
+      <c r="C65" s="5" t="str">
+        <f>LOOKUP(ID!B65,ITEM!C50,ITEM!B50)</f>
+        <v>자연의 기운</v>
+      </c>
+      <c r="D65" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="E65" s="5" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" s="5">
+        <v>64</v>
+      </c>
+      <c r="B66" s="5">
+        <v>4016</v>
+      </c>
+      <c r="C66" s="5" t="str">
+        <f>LOOKUP(ID!B66,ITEM!C51,ITEM!B51)</f>
+        <v>철광석</v>
+      </c>
+      <c r="D66" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="E66" s="5" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" s="5">
+        <v>65</v>
+      </c>
+      <c r="B67" s="5">
+        <v>4017</v>
+      </c>
+      <c r="C67" s="5" t="str">
+        <f>LOOKUP(ID!B67,ITEM!C52,ITEM!B52)</f>
+        <v>흑요석 가루</v>
+      </c>
+      <c r="D67" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="E67" s="5" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" s="5">
+        <v>66</v>
+      </c>
+      <c r="B68" s="5">
+        <v>4018</v>
+      </c>
+      <c r="C68" s="5" t="str">
+        <f>LOOKUP(ID!B68,ITEM!C53,ITEM!B53)</f>
+        <v>이세계 기운이 담긴 돌</v>
+      </c>
+      <c r="D68" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="E68" s="5" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" s="5">
+        <v>67</v>
+      </c>
+      <c r="B69" s="5">
+        <v>4019</v>
+      </c>
+      <c r="C69" s="5" t="str">
+        <f>LOOKUP(ID!B69,ITEM!C54,ITEM!B54)</f>
+        <v>지옥석</v>
+      </c>
+      <c r="D69" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="E69" s="5" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" s="5">
+        <v>68</v>
+      </c>
+      <c r="B70" s="5">
+        <v>4020</v>
+      </c>
+      <c r="C70" s="5" t="str">
+        <f>LOOKUP(ID!B70,ITEM!C55,ITEM!B55)</f>
+        <v>금속의 기운</v>
+      </c>
+      <c r="D70" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="E70" s="5" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71" s="5">
+        <v>69</v>
+      </c>
+      <c r="B71" s="5">
+        <v>4021</v>
+      </c>
+      <c r="C71" s="5" t="str">
+        <f>LOOKUP(ID!B71,ITEM!C56,ITEM!B56)</f>
+        <v>점토</v>
+      </c>
+      <c r="D71" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="E71" s="5" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72" s="5">
+        <v>70</v>
+      </c>
+      <c r="B72" s="5">
+        <v>4022</v>
+      </c>
+      <c r="C72" s="5" t="str">
+        <f>LOOKUP(ID!B72,ITEM!C57,ITEM!B57)</f>
+        <v>신비한 흙</v>
+      </c>
+      <c r="D72" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="E72" s="5" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73" s="5">
+        <v>71</v>
+      </c>
+      <c r="B73" s="5">
+        <v>4023</v>
+      </c>
+      <c r="C73" s="5" t="str">
+        <f>LOOKUP(ID!B73,ITEM!C58,ITEM!B58)</f>
+        <v>생명의 기초</v>
+      </c>
+      <c r="D73" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="E73" s="5" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74" s="5">
+        <v>72</v>
+      </c>
+      <c r="B74" s="5">
+        <v>4024</v>
+      </c>
+      <c r="C74" s="5" t="str">
+        <f>LOOKUP(ID!B74,ITEM!C59,ITEM!B59)</f>
+        <v>가이아의 핵</v>
+      </c>
+      <c r="D74" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="E74" s="5" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75" s="5">
+        <v>73</v>
+      </c>
+      <c r="B75" s="5">
+        <v>4025</v>
+      </c>
+      <c r="C75" s="5" t="str">
+        <f>LOOKUP(ID!B75,ITEM!C60,ITEM!B60)</f>
+        <v>흙의 기운</v>
+      </c>
+      <c r="D75" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="E75" s="5" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76" s="5">
+        <v>74</v>
+      </c>
+      <c r="B76" s="5">
+        <v>5001</v>
+      </c>
+      <c r="C76" s="5" t="str">
+        <f>LOOKUP(ID!B76,ITEM!C61,ITEM!B61)</f>
+        <v>연습용 돌멩이</v>
+      </c>
+      <c r="D76" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="E76" s="5" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77" s="5">
+        <v>75</v>
+      </c>
+      <c r="B77" s="5">
+        <v>5002</v>
+      </c>
+      <c r="C77" s="5" t="str">
+        <f>LOOKUP(ID!B77,ITEM!C62,ITEM!B62)</f>
+        <v>만능 열쇠</v>
+      </c>
+      <c r="D77" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="E77" s="5" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78" s="5">
+        <v>76</v>
+      </c>
+      <c r="B78" s="5">
+        <v>5003</v>
+      </c>
+      <c r="C78" s="5" t="str">
+        <f>LOOKUP(ID!B78,ITEM!C63,ITEM!B63)</f>
+        <v>미지 찾기 레이더</v>
+      </c>
+      <c r="D78" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="E78" s="5" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79" s="5">
+        <v>77</v>
+      </c>
+      <c r="B79" s="5">
+        <v>5004</v>
+      </c>
+      <c r="C79" s="5" t="str">
+        <f>LOOKUP(ID!B79,ITEM!C64,ITEM!B64)</f>
+        <v>미지 봉인구</v>
+      </c>
+      <c r="D79" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="E79" s="5" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80" s="5">
+        <v>78</v>
+      </c>
+      <c r="B80" s="5">
+        <v>5005</v>
+      </c>
+      <c r="C80" s="5" t="str">
+        <f>LOOKUP(ID!B80,ITEM!C65,ITEM!B65)</f>
+        <v>히로인선물1</v>
+      </c>
+      <c r="D80" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="E80" s="5" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81" s="5">
+        <v>79</v>
+      </c>
+      <c r="B81" s="5">
+        <v>5006</v>
+      </c>
+      <c r="C81" s="5" t="str">
+        <f>LOOKUP(ID!B81,ITEM!C66,ITEM!B66)</f>
+        <v>히로인선물2</v>
+      </c>
+      <c r="D81" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="E81" s="5" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82" s="5">
+        <v>80</v>
+      </c>
+      <c r="B82" s="5">
+        <v>5007</v>
+      </c>
+      <c r="C82" s="5" t="str">
+        <f>LOOKUP(ID!B82,ITEM!C67,ITEM!B67)</f>
+        <v>히로인선물3</v>
+      </c>
+      <c r="D82" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="E82" s="5" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="A83" s="5">
+        <v>81</v>
+      </c>
+      <c r="B83" s="5">
+        <v>6001</v>
+      </c>
+      <c r="C83" s="5" t="str">
+        <f>LOOKUP(ID!B83,ITEM!C68,ITEM!B68)</f>
+        <v>진실함의 부적</v>
+      </c>
+      <c r="D83" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="E83" s="5" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
+      <c r="A84" s="5">
+        <v>82</v>
+      </c>
+      <c r="B84" s="5">
+        <v>6002</v>
+      </c>
+      <c r="C84" s="5" t="str">
+        <f>LOOKUP(ID!B84,ITEM!C69,ITEM!B69)</f>
+        <v>자신감의 부적</v>
+      </c>
+      <c r="D84" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="E84" s="5" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="A85" s="5">
+        <v>83</v>
+      </c>
+      <c r="B85" s="5">
+        <v>6003</v>
+      </c>
+      <c r="C85" s="5" t="str">
+        <f>LOOKUP(ID!B85,ITEM!C70,ITEM!B70)</f>
+        <v>표현의 부적</v>
+      </c>
+      <c r="D85" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="E85" s="5" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
+      <c r="A86" s="5">
+        <v>84</v>
+      </c>
+      <c r="B86" s="18">
+        <v>10111</v>
+      </c>
+      <c r="C86" s="5" t="s">
         <v>323</v>
       </c>
-      <c r="D21" t="s">
-        <v>305</v>
-      </c>
-      <c r="E21" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="22" spans="2:5">
-      <c r="B22" s="5">
-        <v>27</v>
-      </c>
-      <c r="C22" t="s">
-        <v>324</v>
-      </c>
-      <c r="D22" t="s">
-        <v>305</v>
-      </c>
-      <c r="E22" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="23" spans="2:5">
-      <c r="B23" s="5">
-        <v>28</v>
-      </c>
-      <c r="C23" t="s">
-        <v>325</v>
-      </c>
-      <c r="D23" t="s">
-        <v>305</v>
-      </c>
-      <c r="E23" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="24" spans="2:5">
-      <c r="B24" s="5">
-        <v>29</v>
-      </c>
-      <c r="C24" t="s">
-        <v>326</v>
-      </c>
-      <c r="D24" t="s">
-        <v>305</v>
-      </c>
-      <c r="E24" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="25" spans="2:5">
-      <c r="B25" s="5">
-        <v>30</v>
-      </c>
-      <c r="C25" t="s">
-        <v>327</v>
-      </c>
-      <c r="D25" t="s">
-        <v>305</v>
-      </c>
-      <c r="E25" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="26" spans="2:5">
-      <c r="B26" s="5">
-        <v>31</v>
-      </c>
-      <c r="C26" t="s">
-        <v>328</v>
-      </c>
-      <c r="D26" t="s">
-        <v>305</v>
-      </c>
-      <c r="E26" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="27" spans="2:5">
-      <c r="B27" s="5">
-        <v>32</v>
-      </c>
-      <c r="C27" t="s">
-        <v>329</v>
-      </c>
-      <c r="D27" t="s">
-        <v>305</v>
-      </c>
-      <c r="E27" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="28" spans="2:5">
-      <c r="B28" s="5">
-        <v>33</v>
-      </c>
-      <c r="C28" t="s">
-        <v>330</v>
-      </c>
-      <c r="D28" t="s">
-        <v>305</v>
-      </c>
-      <c r="E28" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="29" spans="2:5">
-      <c r="B29" s="5">
-        <v>34</v>
-      </c>
-      <c r="C29" t="s">
-        <v>331</v>
-      </c>
-      <c r="D29" t="s">
-        <v>305</v>
-      </c>
-      <c r="E29" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="30" spans="2:5">
-      <c r="B30" s="5">
-        <v>35</v>
-      </c>
-      <c r="C30" t="s">
-        <v>332</v>
-      </c>
-      <c r="D30" t="s">
-        <v>305</v>
-      </c>
-      <c r="E30" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="31" spans="2:5">
-      <c r="B31" s="5">
-        <v>36</v>
-      </c>
-      <c r="C31" t="s">
-        <v>333</v>
-      </c>
-      <c r="D31" t="s">
-        <v>305</v>
-      </c>
-      <c r="E31" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="32" spans="2:5">
-      <c r="B32" s="5">
-        <v>37</v>
-      </c>
-      <c r="C32" t="s">
-        <v>334</v>
-      </c>
-      <c r="D32" t="s">
-        <v>305</v>
-      </c>
-      <c r="E32" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="33" spans="2:2">
-      <c r="B33" s="5">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="34" spans="2:2">
-      <c r="B34" s="5">
-        <v>1002</v>
-      </c>
-    </row>
-    <row r="35" spans="2:2">
-      <c r="B35" s="5">
-        <v>1003</v>
-      </c>
-    </row>
-    <row r="36" spans="2:2">
-      <c r="B36" s="5">
-        <v>1004</v>
-      </c>
-    </row>
-    <row r="37" spans="2:2">
-      <c r="B37" s="5">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="38" spans="2:2">
-      <c r="B38" s="5">
-        <v>1006</v>
-      </c>
-    </row>
-    <row r="39" spans="2:2">
-      <c r="B39" s="5">
-        <v>1007</v>
-      </c>
-    </row>
-    <row r="40" spans="2:2">
-      <c r="B40" s="5">
-        <v>1008</v>
-      </c>
-    </row>
-    <row r="41" spans="2:2">
-      <c r="B41" s="5">
-        <v>1009</v>
-      </c>
-    </row>
-    <row r="42" spans="2:2">
-      <c r="B42" s="5">
-        <v>1010</v>
-      </c>
-    </row>
-    <row r="43" spans="2:2">
-      <c r="B43" s="5">
-        <v>1011</v>
-      </c>
-    </row>
-    <row r="44" spans="2:2">
-      <c r="B44" s="5">
-        <v>1012</v>
-      </c>
-    </row>
-    <row r="45" spans="2:2">
-      <c r="B45" s="5">
-        <v>1013</v>
-      </c>
-    </row>
-    <row r="46" spans="2:2">
-      <c r="B46" s="5">
-        <v>1014</v>
-      </c>
-    </row>
-    <row r="47" spans="2:2">
-      <c r="B47" s="5">
-        <v>1015</v>
-      </c>
-    </row>
-    <row r="48" spans="2:2">
-      <c r="B48" s="5">
-        <v>2001</v>
-      </c>
-    </row>
-    <row r="49" spans="2:2">
-      <c r="B49" s="5">
-        <v>2002</v>
-      </c>
-    </row>
-    <row r="50" spans="2:2">
-      <c r="B50" s="5">
-        <v>2003</v>
-      </c>
-    </row>
-    <row r="51" spans="2:2">
-      <c r="B51" s="5">
-        <v>2004</v>
-      </c>
-    </row>
-    <row r="52" spans="2:2">
-      <c r="B52" s="5">
-        <v>2005</v>
-      </c>
-    </row>
-    <row r="53" spans="2:2">
-      <c r="B53" s="5">
-        <v>2006</v>
-      </c>
-    </row>
-    <row r="54" spans="2:2">
-      <c r="B54" s="5">
-        <v>2007</v>
-      </c>
-    </row>
-    <row r="55" spans="2:2">
-      <c r="B55" s="5">
-        <v>2008</v>
-      </c>
-    </row>
-    <row r="56" spans="2:2">
-      <c r="B56" s="5">
-        <v>2009</v>
-      </c>
-    </row>
-    <row r="57" spans="2:2">
-      <c r="B57" s="5">
-        <v>2010</v>
-      </c>
-    </row>
-    <row r="58" spans="2:2">
-      <c r="B58" s="5">
-        <v>2011</v>
-      </c>
-    </row>
-    <row r="59" spans="2:2">
-      <c r="B59" s="5">
-        <v>2012</v>
-      </c>
-    </row>
-    <row r="60" spans="2:2">
-      <c r="B60" s="5">
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="61" spans="2:2">
-      <c r="B61" s="5">
-        <v>2014</v>
-      </c>
-    </row>
-    <row r="62" spans="2:2">
-      <c r="B62" s="5">
-        <v>2015</v>
-      </c>
-    </row>
-    <row r="63" spans="2:2">
-      <c r="B63" s="5">
-        <v>3001</v>
-      </c>
-    </row>
-    <row r="64" spans="2:2">
-      <c r="B64" s="5">
-        <v>3002</v>
-      </c>
-    </row>
-    <row r="65" spans="2:2">
-      <c r="B65" s="5">
-        <v>3003</v>
-      </c>
-    </row>
-    <row r="66" spans="2:2">
-      <c r="B66" s="5">
-        <v>3004</v>
-      </c>
-    </row>
-    <row r="67" spans="2:2">
-      <c r="B67" s="5">
-        <v>4001</v>
-      </c>
-    </row>
-    <row r="68" spans="2:2">
-      <c r="B68" s="5">
-        <v>4002</v>
-      </c>
-    </row>
-    <row r="69" spans="2:2">
-      <c r="B69" s="5">
-        <v>4003</v>
-      </c>
-    </row>
-    <row r="70" spans="2:2">
-      <c r="B70" s="5">
-        <v>4004</v>
-      </c>
-    </row>
-    <row r="71" spans="2:2">
-      <c r="B71" s="5">
-        <v>4005</v>
-      </c>
-    </row>
-    <row r="72" spans="2:2">
-      <c r="B72" s="5">
-        <v>4006</v>
-      </c>
-    </row>
-    <row r="73" spans="2:2">
-      <c r="B73" s="5">
-        <v>4007</v>
-      </c>
-    </row>
-    <row r="74" spans="2:2">
-      <c r="B74" s="5">
-        <v>4008</v>
-      </c>
-    </row>
-    <row r="75" spans="2:2">
-      <c r="B75" s="5">
-        <v>4009</v>
-      </c>
-    </row>
-    <row r="76" spans="2:2">
-      <c r="B76" s="5">
-        <v>4010</v>
-      </c>
-    </row>
-    <row r="77" spans="2:2">
-      <c r="B77" s="5">
-        <v>4011</v>
-      </c>
-    </row>
-    <row r="78" spans="2:2">
-      <c r="B78" s="5">
-        <v>4012</v>
-      </c>
-    </row>
-    <row r="79" spans="2:2">
-      <c r="B79" s="5">
-        <v>4013</v>
-      </c>
-    </row>
-    <row r="80" spans="2:2">
-      <c r="B80" s="5">
-        <v>4014</v>
-      </c>
-    </row>
-    <row r="81" spans="2:2">
-      <c r="B81" s="5">
-        <v>4015</v>
-      </c>
-    </row>
-    <row r="82" spans="2:2">
-      <c r="B82" s="5">
-        <v>4016</v>
-      </c>
-    </row>
-    <row r="83" spans="2:2">
-      <c r="B83" s="5">
-        <v>4017</v>
-      </c>
-    </row>
-    <row r="84" spans="2:2">
-      <c r="B84" s="5">
-        <v>4018</v>
-      </c>
-    </row>
-    <row r="85" spans="2:2">
-      <c r="B85" s="5">
-        <v>4019</v>
-      </c>
-    </row>
-    <row r="86" spans="2:2">
-      <c r="B86" s="5">
-        <v>4020</v>
-      </c>
-    </row>
-    <row r="87" spans="2:2">
-      <c r="B87" s="5">
-        <v>4021</v>
-      </c>
-    </row>
-    <row r="88" spans="2:2">
-      <c r="B88" s="5">
-        <v>4022</v>
-      </c>
-    </row>
-    <row r="89" spans="2:2">
-      <c r="B89" s="5">
-        <v>4023</v>
-      </c>
-    </row>
-    <row r="90" spans="2:2">
-      <c r="B90" s="5">
-        <v>4024</v>
-      </c>
-    </row>
-    <row r="91" spans="2:2">
-      <c r="B91" s="5">
-        <v>4025</v>
-      </c>
-    </row>
-    <row r="92" spans="2:2">
-      <c r="B92" s="5">
-        <v>5001</v>
-      </c>
-    </row>
-    <row r="93" spans="2:2">
-      <c r="B93" s="5">
-        <v>5002</v>
-      </c>
-    </row>
-    <row r="94" spans="2:2">
-      <c r="B94" s="5">
-        <v>5003</v>
-      </c>
-    </row>
-    <row r="95" spans="2:2">
-      <c r="B95" s="5">
-        <v>5004</v>
-      </c>
-    </row>
-    <row r="96" spans="2:2">
-      <c r="B96" s="5">
-        <v>5005</v>
-      </c>
-    </row>
-    <row r="97" spans="2:3">
-      <c r="B97" s="5">
-        <v>5006</v>
-      </c>
-    </row>
-    <row r="98" spans="2:3">
-      <c r="B98" s="5">
-        <v>5007</v>
-      </c>
-    </row>
-    <row r="99" spans="2:3">
-      <c r="B99" s="5">
-        <v>6001</v>
-      </c>
-    </row>
-    <row r="100" spans="2:3">
-      <c r="B100" s="5">
-        <v>6002</v>
-      </c>
-    </row>
-    <row r="101" spans="2:3">
-      <c r="B101" s="5">
-        <v>6003</v>
-      </c>
-    </row>
-    <row r="102" spans="2:3">
-      <c r="B102" s="20">
-        <v>10111</v>
-      </c>
-      <c r="C102" t="s">
+      <c r="D86" s="18" t="s">
+        <v>353</v>
+      </c>
+      <c r="E86" s="18" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
+      <c r="A87" s="5">
+        <v>85</v>
+      </c>
+      <c r="B87" s="18">
+        <v>10112</v>
+      </c>
+      <c r="C87" s="5" t="s">
+        <v>356</v>
+      </c>
+      <c r="D87" s="18" t="s">
+        <v>353</v>
+      </c>
+      <c r="E87" s="18" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
+      <c r="A88" s="5">
+        <v>86</v>
+      </c>
+      <c r="B88" s="18">
+        <v>10113</v>
+      </c>
+      <c r="C88" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="D88" s="18" t="s">
+        <v>353</v>
+      </c>
+      <c r="E88" s="18" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
+      <c r="A89" s="5">
+        <v>87</v>
+      </c>
+      <c r="B89" s="18">
+        <v>10114</v>
+      </c>
+      <c r="C89" s="5" t="s">
+        <v>357</v>
+      </c>
+      <c r="D89" s="18" t="s">
+        <v>353</v>
+      </c>
+      <c r="E89" s="18" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
+      <c r="A90" s="5">
+        <v>88</v>
+      </c>
+      <c r="B90" s="18">
+        <v>10121</v>
+      </c>
+      <c r="C90" s="5" t="s">
+        <v>358</v>
+      </c>
+      <c r="D90" s="18" t="s">
+        <v>353</v>
+      </c>
+      <c r="E90" s="18" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
+      <c r="A91" s="5">
+        <v>89</v>
+      </c>
+      <c r="B91" s="18">
+        <v>10122</v>
+      </c>
+      <c r="C91" s="5" t="s">
+        <v>359</v>
+      </c>
+      <c r="D91" s="18" t="s">
+        <v>353</v>
+      </c>
+      <c r="E91" s="18" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5">
+      <c r="A92" s="5">
+        <v>90</v>
+      </c>
+      <c r="B92" s="18">
+        <v>10123</v>
+      </c>
+      <c r="C92" s="5" t="s">
         <v>360</v>
+      </c>
+      <c r="D92" s="18" t="s">
+        <v>353</v>
+      </c>
+      <c r="E92" s="18" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5">
+      <c r="A93" s="5">
+        <v>91</v>
+      </c>
+      <c r="B93" s="18">
+        <v>10124</v>
+      </c>
+      <c r="C93" s="5" t="s">
+        <v>361</v>
+      </c>
+      <c r="D93" s="18" t="s">
+        <v>353</v>
+      </c>
+      <c r="E93" s="18" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5">
+      <c r="A94" s="5">
+        <v>92</v>
+      </c>
+      <c r="B94" s="18">
+        <v>10131</v>
+      </c>
+      <c r="C94" s="5" t="s">
+        <v>362</v>
+      </c>
+      <c r="D94" s="18" t="s">
+        <v>353</v>
+      </c>
+      <c r="E94" s="18" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5">
+      <c r="A95" s="5">
+        <v>93</v>
+      </c>
+      <c r="B95" s="18">
+        <v>10132</v>
+      </c>
+      <c r="C95" s="5" t="s">
+        <v>363</v>
+      </c>
+      <c r="D95" s="18" t="s">
+        <v>353</v>
+      </c>
+      <c r="E95" s="18" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5">
+      <c r="A96" s="5">
+        <v>94</v>
+      </c>
+      <c r="B96" s="18">
+        <v>10133</v>
+      </c>
+      <c r="C96" s="5" t="s">
+        <v>364</v>
+      </c>
+      <c r="D96" s="18" t="s">
+        <v>353</v>
+      </c>
+      <c r="E96" s="18" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
+      <c r="A97" s="5">
+        <v>95</v>
+      </c>
+      <c r="B97" s="18">
+        <v>10134</v>
+      </c>
+      <c r="C97" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="D97" s="18" t="s">
+        <v>353</v>
+      </c>
+      <c r="E97" s="18" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5">
+      <c r="A98" s="5">
+        <v>96</v>
+      </c>
+      <c r="B98" s="18">
+        <v>10141</v>
+      </c>
+      <c r="C98" s="5" t="s">
+        <v>366</v>
+      </c>
+      <c r="D98" s="18" t="s">
+        <v>353</v>
+      </c>
+      <c r="E98" s="18" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
+      <c r="A99" s="5">
+        <v>97</v>
+      </c>
+      <c r="B99" s="18">
+        <v>10142</v>
+      </c>
+      <c r="C99" s="5" t="s">
+        <v>367</v>
+      </c>
+      <c r="D99" s="18" t="s">
+        <v>353</v>
+      </c>
+      <c r="E99" s="18" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
+      <c r="A100" s="5">
+        <v>98</v>
+      </c>
+      <c r="B100" s="18">
+        <v>10143</v>
+      </c>
+      <c r="C100" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="D100" s="18" t="s">
+        <v>353</v>
+      </c>
+      <c r="E100" s="18" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5">
+      <c r="A101" s="5">
+        <v>99</v>
+      </c>
+      <c r="B101" s="18">
+        <v>10144</v>
+      </c>
+      <c r="C101" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="D101" s="18" t="s">
+        <v>353</v>
+      </c>
+      <c r="E101" s="18" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5">
+      <c r="A102" s="5">
+        <v>100</v>
+      </c>
+      <c r="B102" s="18">
+        <v>10151</v>
+      </c>
+      <c r="C102" s="5" t="s">
+        <v>370</v>
+      </c>
+      <c r="D102" s="18" t="s">
+        <v>353</v>
+      </c>
+      <c r="E102" s="18" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5">
+      <c r="A103" s="5">
+        <v>101</v>
+      </c>
+      <c r="B103" s="18">
+        <v>10152</v>
+      </c>
+      <c r="C103" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="D103" s="18" t="s">
+        <v>353</v>
+      </c>
+      <c r="E103" s="18" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5">
+      <c r="A104" s="5">
+        <v>102</v>
+      </c>
+      <c r="B104" s="18">
+        <v>10153</v>
+      </c>
+      <c r="C104" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="D104" s="18" t="s">
+        <v>353</v>
+      </c>
+      <c r="E104" s="18" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5">
+      <c r="A105" s="5">
+        <v>103</v>
+      </c>
+      <c r="B105" s="18">
+        <v>10154</v>
+      </c>
+      <c r="C105" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="D105" s="18" t="s">
+        <v>353</v>
+      </c>
+      <c r="E105" s="18" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5">
+      <c r="A106" s="5">
+        <v>104</v>
+      </c>
+      <c r="B106" s="18">
+        <v>10161</v>
+      </c>
+      <c r="C106" s="5" t="s">
+        <v>374</v>
+      </c>
+      <c r="D106" s="18" t="s">
+        <v>353</v>
+      </c>
+      <c r="E106" s="18" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5">
+      <c r="A107" s="5">
+        <v>105</v>
+      </c>
+      <c r="B107" s="18">
+        <v>10162</v>
+      </c>
+      <c r="C107" s="5" t="s">
+        <v>375</v>
+      </c>
+      <c r="D107" s="18" t="s">
+        <v>353</v>
+      </c>
+      <c r="E107" s="18" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5">
+      <c r="A108" s="5">
+        <v>106</v>
+      </c>
+      <c r="B108" s="18">
+        <v>10163</v>
+      </c>
+      <c r="C108" s="5" t="s">
+        <v>376</v>
+      </c>
+      <c r="D108" s="18" t="s">
+        <v>353</v>
+      </c>
+      <c r="E108" s="18" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5">
+      <c r="A109" s="5">
+        <v>107</v>
+      </c>
+      <c r="B109" s="18">
+        <v>10164</v>
+      </c>
+      <c r="C109" s="5" t="s">
+        <v>377</v>
+      </c>
+      <c r="D109" s="18" t="s">
+        <v>353</v>
+      </c>
+      <c r="E109" s="18" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5">
+      <c r="A110" s="5">
+        <v>108</v>
+      </c>
+      <c r="B110" s="18">
+        <v>10171</v>
+      </c>
+      <c r="C110" s="5" t="s">
+        <v>378</v>
+      </c>
+      <c r="D110" s="18" t="s">
+        <v>353</v>
+      </c>
+      <c r="E110" s="18" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5">
+      <c r="A111" s="5">
+        <v>109</v>
+      </c>
+      <c r="B111" s="18">
+        <v>10172</v>
+      </c>
+      <c r="C111" s="5" t="s">
+        <v>379</v>
+      </c>
+      <c r="D111" s="18" t="s">
+        <v>353</v>
+      </c>
+      <c r="E111" s="18" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5">
+      <c r="A112" s="5">
+        <v>110</v>
+      </c>
+      <c r="B112" s="18">
+        <v>10173</v>
+      </c>
+      <c r="C112" s="5" t="s">
+        <v>380</v>
+      </c>
+      <c r="D112" s="18" t="s">
+        <v>353</v>
+      </c>
+      <c r="E112" s="18" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5">
+      <c r="A113" s="5">
+        <v>111</v>
+      </c>
+      <c r="B113" s="18">
+        <v>10174</v>
+      </c>
+      <c r="C113" s="5" t="s">
+        <v>381</v>
+      </c>
+      <c r="D113" s="18" t="s">
+        <v>353</v>
+      </c>
+      <c r="E113" s="18" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5">
+      <c r="A114" s="5">
+        <v>112</v>
+      </c>
+      <c r="B114" s="18">
+        <v>10211</v>
+      </c>
+      <c r="C114" s="5" t="s">
+        <v>382</v>
+      </c>
+      <c r="D114" s="18" t="s">
+        <v>353</v>
+      </c>
+      <c r="E114" s="18" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5">
+      <c r="A115" s="5">
+        <v>113</v>
+      </c>
+      <c r="B115" s="18">
+        <v>10212</v>
+      </c>
+      <c r="C115" s="5" t="s">
+        <v>383</v>
+      </c>
+      <c r="D115" s="18" t="s">
+        <v>353</v>
+      </c>
+      <c r="E115" s="18" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5">
+      <c r="A116" s="5">
+        <v>114</v>
+      </c>
+      <c r="B116" s="18">
+        <v>10213</v>
+      </c>
+      <c r="C116" s="5" t="s">
+        <v>384</v>
+      </c>
+      <c r="D116" s="18" t="s">
+        <v>353</v>
+      </c>
+      <c r="E116" s="18" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5">
+      <c r="A117" s="5">
+        <v>115</v>
+      </c>
+      <c r="B117" s="18">
+        <v>10214</v>
+      </c>
+      <c r="C117" s="5" t="s">
+        <v>385</v>
+      </c>
+      <c r="D117" s="18" t="s">
+        <v>353</v>
+      </c>
+      <c r="E117" s="18" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5">
+      <c r="A118" s="5">
+        <v>116</v>
+      </c>
+      <c r="B118" s="18">
+        <v>10221</v>
+      </c>
+      <c r="C118" s="5" t="s">
+        <v>386</v>
+      </c>
+      <c r="D118" s="18" t="s">
+        <v>353</v>
+      </c>
+      <c r="E118" s="18" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5">
+      <c r="A119" s="5">
+        <v>117</v>
+      </c>
+      <c r="B119" s="18">
+        <v>10222</v>
+      </c>
+      <c r="C119" s="5" t="s">
+        <v>387</v>
+      </c>
+      <c r="D119" s="18" t="s">
+        <v>353</v>
+      </c>
+      <c r="E119" s="18" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5">
+      <c r="A120" s="5">
+        <v>118</v>
+      </c>
+      <c r="B120" s="18">
+        <v>10223</v>
+      </c>
+      <c r="C120" s="5" t="s">
+        <v>388</v>
+      </c>
+      <c r="D120" s="18" t="s">
+        <v>353</v>
+      </c>
+      <c r="E120" s="18" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5">
+      <c r="A121" s="5">
+        <v>119</v>
+      </c>
+      <c r="B121" s="18">
+        <v>10224</v>
+      </c>
+      <c r="C121" s="5" t="s">
+        <v>389</v>
+      </c>
+      <c r="D121" s="18" t="s">
+        <v>353</v>
+      </c>
+      <c r="E121" s="18" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5">
+      <c r="A122" s="5">
+        <v>120</v>
+      </c>
+      <c r="B122" s="18">
+        <v>10231</v>
+      </c>
+      <c r="C122" s="5" t="s">
+        <v>390</v>
+      </c>
+      <c r="D122" s="18" t="s">
+        <v>353</v>
+      </c>
+      <c r="E122" s="18" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5">
+      <c r="A123" s="5">
+        <v>121</v>
+      </c>
+      <c r="B123" s="18">
+        <v>10232</v>
+      </c>
+      <c r="C123" s="5" t="s">
+        <v>391</v>
+      </c>
+      <c r="D123" s="18" t="s">
+        <v>353</v>
+      </c>
+      <c r="E123" s="18" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5">
+      <c r="A124" s="5">
+        <v>122</v>
+      </c>
+      <c r="B124" s="18">
+        <v>10233</v>
+      </c>
+      <c r="C124" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="D124" s="18" t="s">
+        <v>353</v>
+      </c>
+      <c r="E124" s="18" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5">
+      <c r="A125" s="5">
+        <v>123</v>
+      </c>
+      <c r="B125" s="18">
+        <v>10234</v>
+      </c>
+      <c r="C125" s="5" t="s">
+        <v>393</v>
+      </c>
+      <c r="D125" s="18" t="s">
+        <v>353</v>
+      </c>
+      <c r="E125" s="18" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5">
+      <c r="A126" s="5">
+        <v>124</v>
+      </c>
+      <c r="B126" s="18">
+        <v>10241</v>
+      </c>
+      <c r="C126" s="5" t="s">
+        <v>394</v>
+      </c>
+      <c r="D126" s="18" t="s">
+        <v>353</v>
+      </c>
+      <c r="E126" s="18" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5">
+      <c r="A127" s="5">
+        <v>125</v>
+      </c>
+      <c r="B127" s="18">
+        <v>10242</v>
+      </c>
+      <c r="C127" s="5" t="s">
+        <v>395</v>
+      </c>
+      <c r="D127" s="18" t="s">
+        <v>353</v>
+      </c>
+      <c r="E127" s="18" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5">
+      <c r="A128" s="5">
+        <v>126</v>
+      </c>
+      <c r="B128" s="18">
+        <v>10243</v>
+      </c>
+      <c r="C128" s="5" t="s">
+        <v>396</v>
+      </c>
+      <c r="D128" s="18" t="s">
+        <v>353</v>
+      </c>
+      <c r="E128" s="18" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5">
+      <c r="A129" s="5">
+        <v>127</v>
+      </c>
+      <c r="B129" s="18">
+        <v>10244</v>
+      </c>
+      <c r="C129" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="D129" s="18" t="s">
+        <v>353</v>
+      </c>
+      <c r="E129" s="18" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5">
+      <c r="A130" s="5">
+        <v>128</v>
+      </c>
+      <c r="B130" s="18">
+        <v>10251</v>
+      </c>
+      <c r="C130" s="5" t="s">
+        <v>398</v>
+      </c>
+      <c r="D130" s="18" t="s">
+        <v>353</v>
+      </c>
+      <c r="E130" s="18" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5">
+      <c r="A131" s="5">
+        <v>129</v>
+      </c>
+      <c r="B131" s="18">
+        <v>10252</v>
+      </c>
+      <c r="C131" s="5" t="s">
+        <v>399</v>
+      </c>
+      <c r="D131" s="18" t="s">
+        <v>353</v>
+      </c>
+      <c r="E131" s="18" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5">
+      <c r="A132" s="5">
+        <v>130</v>
+      </c>
+      <c r="B132" s="18">
+        <v>10253</v>
+      </c>
+      <c r="C132" s="5" t="s">
+        <v>400</v>
+      </c>
+      <c r="D132" s="18" t="s">
+        <v>353</v>
+      </c>
+      <c r="E132" s="18" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5">
+      <c r="A133" s="5">
+        <v>131</v>
+      </c>
+      <c r="B133" s="18">
+        <v>10254</v>
+      </c>
+      <c r="C133" s="5" t="s">
+        <v>401</v>
+      </c>
+      <c r="D133" s="18" t="s">
+        <v>353</v>
+      </c>
+      <c r="E133" s="18" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5">
+      <c r="A134" s="5">
+        <v>132</v>
+      </c>
+      <c r="B134" s="18">
+        <v>10261</v>
+      </c>
+      <c r="C134" s="5" t="s">
+        <v>402</v>
+      </c>
+      <c r="D134" s="18" t="s">
+        <v>353</v>
+      </c>
+      <c r="E134" s="18" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5">
+      <c r="A135" s="5">
+        <v>133</v>
+      </c>
+      <c r="B135" s="18">
+        <v>10262</v>
+      </c>
+      <c r="C135" s="5" t="s">
+        <v>403</v>
+      </c>
+      <c r="D135" s="18" t="s">
+        <v>353</v>
+      </c>
+      <c r="E135" s="18" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5">
+      <c r="A136" s="5">
+        <v>134</v>
+      </c>
+      <c r="B136" s="18">
+        <v>10263</v>
+      </c>
+      <c r="C136" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="D136" s="18" t="s">
+        <v>353</v>
+      </c>
+      <c r="E136" s="18" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5">
+      <c r="A137" s="5">
+        <v>135</v>
+      </c>
+      <c r="B137" s="18">
+        <v>10264</v>
+      </c>
+      <c r="C137" s="5" t="s">
+        <v>405</v>
+      </c>
+      <c r="D137" s="18" t="s">
+        <v>353</v>
+      </c>
+      <c r="E137" s="18" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5">
+      <c r="A138" s="5">
+        <v>136</v>
+      </c>
+      <c r="B138" s="18">
+        <v>10271</v>
+      </c>
+      <c r="C138" s="5" t="s">
+        <v>406</v>
+      </c>
+      <c r="D138" s="18" t="s">
+        <v>353</v>
+      </c>
+      <c r="E138" s="18" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5">
+      <c r="A139" s="5">
+        <v>137</v>
+      </c>
+      <c r="B139" s="18">
+        <v>10272</v>
+      </c>
+      <c r="C139" s="5" t="s">
+        <v>407</v>
+      </c>
+      <c r="D139" s="18" t="s">
+        <v>353</v>
+      </c>
+      <c r="E139" s="18" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5">
+      <c r="A140" s="5">
+        <v>138</v>
+      </c>
+      <c r="B140" s="18">
+        <v>10273</v>
+      </c>
+      <c r="C140" s="5" t="s">
+        <v>408</v>
+      </c>
+      <c r="D140" s="18" t="s">
+        <v>353</v>
+      </c>
+      <c r="E140" s="18" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5">
+      <c r="A141" s="5">
+        <v>139</v>
+      </c>
+      <c r="B141" s="18">
+        <v>10274</v>
+      </c>
+      <c r="C141" s="5" t="s">
+        <v>409</v>
+      </c>
+      <c r="D141" s="18" t="s">
+        <v>353</v>
+      </c>
+      <c r="E141" s="18" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5">
+      <c r="A142" s="5">
+        <v>140</v>
+      </c>
+      <c r="B142" s="18">
+        <v>10311</v>
+      </c>
+      <c r="C142" s="5" t="s">
+        <v>410</v>
+      </c>
+      <c r="D142" s="18" t="s">
+        <v>353</v>
+      </c>
+      <c r="E142" s="18" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5">
+      <c r="A143" s="5">
+        <v>141</v>
+      </c>
+      <c r="B143" s="18">
+        <v>10312</v>
+      </c>
+      <c r="C143" s="5" t="s">
+        <v>411</v>
+      </c>
+      <c r="D143" s="18" t="s">
+        <v>353</v>
+      </c>
+      <c r="E143" s="18" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5">
+      <c r="A144" s="5">
+        <v>142</v>
+      </c>
+      <c r="B144" s="18">
+        <v>10313</v>
+      </c>
+      <c r="C144" s="5" t="s">
+        <v>412</v>
+      </c>
+      <c r="D144" s="18" t="s">
+        <v>353</v>
+      </c>
+      <c r="E144" s="18" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5">
+      <c r="A145" s="5">
+        <v>143</v>
+      </c>
+      <c r="B145" s="18">
+        <v>10314</v>
+      </c>
+      <c r="C145" s="5" t="s">
+        <v>413</v>
+      </c>
+      <c r="D145" s="18" t="s">
+        <v>353</v>
+      </c>
+      <c r="E145" s="18" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5">
+      <c r="A146" s="5">
+        <v>144</v>
+      </c>
+      <c r="B146" s="18">
+        <v>10321</v>
+      </c>
+      <c r="C146" s="5" t="s">
+        <v>414</v>
+      </c>
+      <c r="D146" s="18" t="s">
+        <v>353</v>
+      </c>
+      <c r="E146" s="18" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5">
+      <c r="A147" s="5">
+        <v>145</v>
+      </c>
+      <c r="B147" s="18">
+        <v>10322</v>
+      </c>
+      <c r="C147" s="5" t="s">
+        <v>415</v>
+      </c>
+      <c r="D147" s="18" t="s">
+        <v>353</v>
+      </c>
+      <c r="E147" s="18" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5">
+      <c r="A148" s="5">
+        <v>146</v>
+      </c>
+      <c r="B148" s="18">
+        <v>10323</v>
+      </c>
+      <c r="C148" s="5" t="s">
+        <v>416</v>
+      </c>
+      <c r="D148" s="18" t="s">
+        <v>353</v>
+      </c>
+      <c r="E148" s="18" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5">
+      <c r="A149" s="5">
+        <v>147</v>
+      </c>
+      <c r="B149" s="18">
+        <v>10324</v>
+      </c>
+      <c r="C149" s="5" t="s">
+        <v>417</v>
+      </c>
+      <c r="D149" s="18" t="s">
+        <v>353</v>
+      </c>
+      <c r="E149" s="18" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5">
+      <c r="A150" s="5">
+        <v>148</v>
+      </c>
+      <c r="B150" s="18">
+        <v>10331</v>
+      </c>
+      <c r="C150" s="5" t="s">
+        <v>418</v>
+      </c>
+      <c r="D150" s="18" t="s">
+        <v>353</v>
+      </c>
+      <c r="E150" s="18" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5">
+      <c r="A151" s="5">
+        <v>149</v>
+      </c>
+      <c r="B151" s="18">
+        <v>10332</v>
+      </c>
+      <c r="C151" s="5" t="s">
+        <v>419</v>
+      </c>
+      <c r="D151" s="18" t="s">
+        <v>353</v>
+      </c>
+      <c r="E151" s="18" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5">
+      <c r="A152" s="5">
+        <v>150</v>
+      </c>
+      <c r="B152" s="18">
+        <v>10333</v>
+      </c>
+      <c r="C152" s="5" t="s">
+        <v>420</v>
+      </c>
+      <c r="D152" s="18" t="s">
+        <v>353</v>
+      </c>
+      <c r="E152" s="18" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5">
+      <c r="A153" s="5">
+        <v>151</v>
+      </c>
+      <c r="B153" s="18">
+        <v>10334</v>
+      </c>
+      <c r="C153" s="5" t="s">
+        <v>421</v>
+      </c>
+      <c r="D153" s="18" t="s">
+        <v>353</v>
+      </c>
+      <c r="E153" s="18" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5">
+      <c r="A154" s="5">
+        <v>152</v>
+      </c>
+      <c r="B154" s="18">
+        <v>10341</v>
+      </c>
+      <c r="C154" s="5" t="s">
+        <v>422</v>
+      </c>
+      <c r="D154" s="18" t="s">
+        <v>353</v>
+      </c>
+      <c r="E154" s="18" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5">
+      <c r="A155" s="5">
+        <v>153</v>
+      </c>
+      <c r="B155" s="18">
+        <v>10342</v>
+      </c>
+      <c r="C155" s="5" t="s">
+        <v>423</v>
+      </c>
+      <c r="D155" s="18" t="s">
+        <v>353</v>
+      </c>
+      <c r="E155" s="18" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5">
+      <c r="A156" s="5">
+        <v>154</v>
+      </c>
+      <c r="B156" s="18">
+        <v>10343</v>
+      </c>
+      <c r="C156" s="5" t="s">
+        <v>424</v>
+      </c>
+      <c r="D156" s="18" t="s">
+        <v>353</v>
+      </c>
+      <c r="E156" s="18" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5">
+      <c r="A157" s="5">
+        <v>155</v>
+      </c>
+      <c r="B157" s="18">
+        <v>10344</v>
+      </c>
+      <c r="C157" s="5" t="s">
+        <v>425</v>
+      </c>
+      <c r="D157" s="18" t="s">
+        <v>353</v>
+      </c>
+      <c r="E157" s="18" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5">
+      <c r="A158" s="5">
+        <v>156</v>
+      </c>
+      <c r="B158" s="18">
+        <v>10351</v>
+      </c>
+      <c r="C158" s="5" t="s">
+        <v>426</v>
+      </c>
+      <c r="D158" s="18" t="s">
+        <v>353</v>
+      </c>
+      <c r="E158" s="18" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5">
+      <c r="A159" s="5">
+        <v>157</v>
+      </c>
+      <c r="B159" s="18">
+        <v>10352</v>
+      </c>
+      <c r="C159" s="5" t="s">
+        <v>427</v>
+      </c>
+      <c r="D159" s="18" t="s">
+        <v>353</v>
+      </c>
+      <c r="E159" s="18" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5">
+      <c r="A160" s="5">
+        <v>158</v>
+      </c>
+      <c r="B160" s="18">
+        <v>10353</v>
+      </c>
+      <c r="C160" s="5" t="s">
+        <v>428</v>
+      </c>
+      <c r="D160" s="18" t="s">
+        <v>353</v>
+      </c>
+      <c r="E160" s="18" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5">
+      <c r="A161" s="5">
+        <v>159</v>
+      </c>
+      <c r="B161" s="18">
+        <v>10354</v>
+      </c>
+      <c r="C161" s="5" t="s">
+        <v>429</v>
+      </c>
+      <c r="D161" s="18" t="s">
+        <v>353</v>
+      </c>
+      <c r="E161" s="18" t="s">
+        <v>354</v>
       </c>
     </row>
   </sheetData>
@@ -7213,7 +9574,7 @@
   <dimension ref="B8:O30"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="K44" sqref="K44"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -7243,7 +9604,7 @@
     </row>
     <row r="9" spans="2:9">
       <c r="B9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>18</v>
@@ -7269,7 +9630,7 @@
     </row>
     <row r="10" spans="2:9">
       <c r="B10" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>6</v>
@@ -7295,7 +9656,7 @@
     </row>
     <row r="11" spans="2:9">
       <c r="B11" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>10</v>
@@ -7315,7 +9676,7 @@
     </row>
     <row r="12" spans="2:9">
       <c r="B12" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>5</v>
@@ -7329,7 +9690,7 @@
     </row>
     <row r="13" spans="2:9">
       <c r="B13" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>7</v>
@@ -7343,7 +9704,7 @@
     </row>
     <row r="14" spans="2:9">
       <c r="B14" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>8</v>
@@ -7767,10 +10128,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B82A9F54-8058-4624-AFFE-75B7854B6E59}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -7866,7 +10227,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>291</v>
+        <v>343</v>
       </c>
       <c r="C5" s="18">
         <v>400</v>
@@ -7874,6 +10235,20 @@
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="18">
+        <v>4</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>287</v>
+      </c>
+      <c r="C6" s="18">
+        <v>500</v>
+      </c>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -8026,82 +10401,124 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5873BC6-3FBB-4464-96A0-957C2249DD3D}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" t="s">
+      <c r="A1" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="21" t="s">
+        <v>263</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>264</v>
+      </c>
+      <c r="D1" s="21" t="s">
         <v>265</v>
       </c>
-      <c r="C1" t="s">
-        <v>266</v>
-      </c>
-      <c r="D1" t="s">
-        <v>267</v>
-      </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="A2" s="5">
+        <v>0</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="C2" t="s">
-        <v>268</v>
-      </c>
-      <c r="D2">
+      <c r="C2" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="D2" s="5">
         <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="A3" s="5">
+        <v>1</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="C3" t="s">
-        <v>269</v>
-      </c>
-      <c r="D3">
+      <c r="C3" s="5" t="s">
+        <v>327</v>
+      </c>
+      <c r="D3" s="5">
         <v>102</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4">
+      <c r="A4" s="5">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="C4" t="s">
-        <v>292</v>
-      </c>
-      <c r="D4">
+      <c r="C4" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="D4" s="5">
         <v>103</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5">
+      <c r="A5" s="5">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="C5" t="s">
-        <v>293</v>
-      </c>
-      <c r="D5">
+      <c r="C5" s="5" t="s">
+        <v>329</v>
+      </c>
+      <c r="D5" s="5">
         <v>104</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="5">
+        <v>4</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>330</v>
+      </c>
+      <c r="D6" s="5">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="5">
+        <v>5</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>331</v>
+      </c>
+      <c r="D7" s="5">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="5">
+        <v>6</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>332</v>
+      </c>
+      <c r="D8" s="5">
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -8115,7 +10532,7 @@
   <dimension ref="A1:U4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -8210,7 +10627,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="5">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>87</v>
@@ -8266,10 +10683,10 @@
     </row>
     <row r="3" spans="1:21">
       <c r="A3" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B3" s="5">
-        <v>20</v>
+        <v>200</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>88</v>
@@ -8319,10 +10736,10 @@
     </row>
     <row r="4" spans="1:21">
       <c r="A4" s="5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B4" s="5">
-        <v>30</v>
+        <v>300</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>89</v>
@@ -8381,7 +10798,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -8391,21 +10808,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" t="s">
+      <c r="A1" s="21" t="s">
         <v>197</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="21" t="s">
         <v>198</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="21" t="s">
         <v>199</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="21" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2">
+      <c r="A2" s="5">
         <v>0</v>
       </c>
       <c r="B2" s="5" t="s">
@@ -8414,12 +10831,12 @@
       <c r="C2" s="5">
         <v>3001</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3">
+      <c r="A3" s="5">
         <v>1</v>
       </c>
       <c r="B3" s="5" t="s">
@@ -8428,12 +10845,12 @@
       <c r="C3" s="5">
         <v>3002</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4">
+      <c r="A4" s="5">
         <v>2</v>
       </c>
       <c r="B4" s="5" t="s">
@@ -8442,12 +10859,12 @@
       <c r="C4" s="5">
         <v>3003</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5">
+      <c r="A5" s="5">
         <v>3</v>
       </c>
       <c r="B5" s="5" t="s">
@@ -8456,7 +10873,7 @@
       <c r="C5" s="5">
         <v>3004</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="5">
         <v>0</v>
       </c>
     </row>
@@ -8471,7 +10888,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -8485,72 +10902,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" t="s">
+      <c r="A1" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="21" t="s">
         <v>125</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="21" t="s">
         <v>151</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="21" t="s">
         <v>154</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="21" t="s">
         <v>152</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="21" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="A2" s="5">
+        <v>0</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>249</v>
       </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="C2" s="5">
+        <v>1</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="E2" s="5">
+        <v>0</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="A3" s="5">
+        <v>1</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="5">
         <v>2</v>
       </c>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4">
+      <c r="A4" s="5">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="5">
         <v>3</v>
       </c>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -8835,114 +11260,333 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C74065DC-F54E-468F-BBC7-10F5171E7690}">
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:K35"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="2" max="2" width="11.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.25" customWidth="1"/>
-    <col min="5" max="5" width="47.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.25" customWidth="1"/>
+    <col min="4" max="4" width="121.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1" spans="1:11">
+      <c r="A1" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="16" t="s">
         <v>252</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="16" t="s">
+        <v>258</v>
+      </c>
+      <c r="D1" s="16" t="s">
         <v>253</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" s="16" t="s">
+        <v>430</v>
+      </c>
+      <c r="F1" s="29" t="s">
+        <v>254</v>
+      </c>
+      <c r="G1" s="29" t="s">
+        <v>255</v>
+      </c>
+      <c r="H1" s="29" t="s">
+        <v>256</v>
+      </c>
+      <c r="I1" s="29" t="s">
+        <v>257</v>
+      </c>
+      <c r="J1" s="29" t="s">
+        <v>450</v>
+      </c>
+      <c r="K1" s="29" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="5">
+        <v>0</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>259</v>
       </c>
-      <c r="E1" t="s">
-        <v>254</v>
-      </c>
-      <c r="F1" s="19" t="s">
-        <v>255</v>
-      </c>
-      <c r="G1" s="19" t="s">
-        <v>256</v>
-      </c>
-      <c r="H1" s="19" t="s">
-        <v>257</v>
-      </c>
-      <c r="I1" s="19" t="s">
-        <v>258</v>
-      </c>
-      <c r="J1" s="19" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>294</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="C2" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>260</v>
       </c>
-      <c r="D2" t="s">
-        <v>295</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="5">
+        <v>1</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>261</v>
       </c>
-      <c r="I2" t="s">
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="5">
+        <v>2</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>294</v>
-      </c>
-      <c r="C3" t="s">
-        <v>260</v>
-      </c>
-      <c r="D3" t="s">
-        <v>295</v>
-      </c>
-      <c r="E3" t="s">
-        <v>263</v>
-      </c>
-      <c r="I3" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>294</v>
-      </c>
-      <c r="C4" t="s">
-        <v>260</v>
-      </c>
-      <c r="D4" t="s">
-        <v>295</v>
-      </c>
-      <c r="E4" t="s">
-        <v>264</v>
-      </c>
-      <c r="I4" t="s">
-        <v>262</v>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="D5" s="30" t="s">
+        <v>432</v>
+      </c>
+      <c r="E5" s="19">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="D6" s="30" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="D7" s="30" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="D8" s="30" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="D9" s="30" t="s">
+        <v>436</v>
+      </c>
+      <c r="E9">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="D10" s="30" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="D11" s="30" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="D12" s="30" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="D13" s="30" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="D14" s="30" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="D15" s="30" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="D16" s="30" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="17" spans="4:7">
+      <c r="D17" s="30" t="s">
+        <v>444</v>
+      </c>
+      <c r="E17">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="18" spans="4:7">
+      <c r="D18" s="30" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="19" spans="4:7">
+      <c r="D19" s="30" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="20" spans="4:7">
+      <c r="D20" s="30" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="21" spans="4:7">
+      <c r="D21" s="30" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="22" spans="4:7">
+      <c r="D22" s="30" t="s">
+        <v>449</v>
+      </c>
+      <c r="E22">
+        <v>100</v>
+      </c>
+      <c r="G22">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="23" spans="4:7">
+      <c r="D23" s="30" t="s">
+        <v>451</v>
+      </c>
+      <c r="G23">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="24" spans="4:7">
+      <c r="D24" s="30" t="s">
+        <v>452</v>
+      </c>
+      <c r="G24">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="25" spans="4:7">
+      <c r="D25" s="30" t="s">
+        <v>453</v>
+      </c>
+      <c r="G25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="26" spans="4:7">
+      <c r="D26" s="30" t="s">
+        <v>454</v>
+      </c>
+      <c r="G26">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="27" spans="4:7">
+      <c r="D27" s="30" t="s">
+        <v>456</v>
+      </c>
+      <c r="G27">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="28" spans="4:7">
+      <c r="D28" s="30" t="s">
+        <v>457</v>
+      </c>
+      <c r="G28">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="29" spans="4:7">
+      <c r="D29" s="30" t="s">
+        <v>455</v>
+      </c>
+      <c r="G29">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="30" spans="4:7">
+      <c r="D30" s="30" t="s">
+        <v>458</v>
+      </c>
+      <c r="E30">
+        <v>500</v>
+      </c>
+      <c r="G30">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="31" spans="4:7">
+      <c r="D31" s="30" t="s">
+        <v>459</v>
+      </c>
+      <c r="G31">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="32" spans="4:7">
+      <c r="D32" s="30" t="s">
+        <v>460</v>
+      </c>
+      <c r="G32">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="33" spans="4:7">
+      <c r="D33" s="30" t="s">
+        <v>460</v>
+      </c>
+      <c r="G33">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="34" spans="4:7">
+      <c r="D34" s="30" t="s">
+        <v>461</v>
+      </c>
+      <c r="G34">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="35" spans="4:7">
+      <c r="D35" s="30" t="s">
+        <v>462</v>
+      </c>
+      <c r="G35">
+        <v>103</v>
       </c>
     </row>
   </sheetData>
